--- a/tests/testdata/test_geometry_material_input.xlsx
+++ b/tests/testdata/test_geometry_material_input.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Input_variables" sheetId="1" r:id="rId1"/>
@@ -18,18 +18,15 @@
     <sheet name="wheel_geometries" sheetId="7" r:id="rId4"/>
     <sheet name="rail_geometries" sheetId="8" r:id="rId5"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId6"/>
-  </externalReferences>
   <definedNames>
-    <definedName name="rng_rail_geometries">railgeometries[name]</definedName>
-    <definedName name="rng_rail_geometry_names">railgeometries[name]</definedName>
-    <definedName name="rng_rail_material_names">railmaterials[name]</definedName>
-    <definedName name="rng_rail_names">railmaterials[name]</definedName>
-    <definedName name="rng_wheel_geometries">wheelgeometries[name]</definedName>
-    <definedName name="rng_wheel_geometry_names">wheelgeometries[name]</definedName>
-    <definedName name="rng_wheel_material_names">wheelmaterials4[name]</definedName>
-    <definedName name="wheel_names">wheelmaterials4[name]</definedName>
+    <definedName name="rng_rail_geometries">railgeometries[Name]</definedName>
+    <definedName name="rng_rail_geometry_names">railgeometries[Name]</definedName>
+    <definedName name="rng_rail_material_names">railmaterials[Name]</definedName>
+    <definedName name="rng_rail_names">railmaterials[Name]</definedName>
+    <definedName name="rng_wheel_geometries">wheelgeometries[Name]</definedName>
+    <definedName name="rng_wheel_geometry_names">wheelgeometries[Name]</definedName>
+    <definedName name="rng_wheel_material_names">wheelmaterials4[Name]</definedName>
+    <definedName name="wheel_names">wheelmaterials4[Name]</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -46,8 +43,103 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Laile, Mathias</author>
+  </authors>
+  <commentList>
+    <comment ref="E1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Note:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">If material surface was hardened, yield point before that process
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Note:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">If material surface was hardened, yield point before that process
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Laile, Mathias</author>
+  </authors>
+  <commentList>
+    <comment ref="E2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Note:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">If material surface was hardened, yield point before that process
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="173">
   <si>
     <t>f_y</t>
   </si>
@@ -301,9 +393,6 @@
     <t>rail_geometry</t>
   </si>
   <si>
-    <t>General Input</t>
-  </si>
-  <si>
     <t>cycle_mode</t>
   </si>
   <si>
@@ -346,9 +435,6 @@
     <t>num_cycles_rail</t>
   </si>
   <si>
-    <t>RBG-Konfiguration</t>
-  </si>
-  <si>
     <t>Faktor-f_f4</t>
   </si>
   <si>
@@ -388,18 +474,6 @@
     <t>TestR3</t>
   </si>
   <si>
-    <t>b_min</t>
-  </si>
-  <si>
-    <t>r_3_b_min</t>
-  </si>
-  <si>
-    <t>contact</t>
-  </si>
-  <si>
-    <t>f_1</t>
-  </si>
-  <si>
     <t>w</t>
   </si>
   <si>
@@ -415,9 +489,6 @@
     <t>line</t>
   </si>
   <si>
-    <t>f_f3</t>
-  </si>
-  <si>
     <t>Results Geometry</t>
   </si>
   <si>
@@ -436,40 +507,160 @@
     <t>g</t>
   </si>
   <si>
-    <t>v_r</t>
-  </si>
-  <si>
-    <t>v_w</t>
-  </si>
-  <si>
-    <t>E_r</t>
-  </si>
-  <si>
-    <t>E_w</t>
-  </si>
-  <si>
-    <t>z_r</t>
-  </si>
-  <si>
-    <t>z_w</t>
-  </si>
-  <si>
-    <t>f_y_r</t>
-  </si>
-  <si>
-    <t>HB_r</t>
-  </si>
-  <si>
-    <t>HB_w</t>
-  </si>
-  <si>
-    <t>E_m</t>
-  </si>
-  <si>
-    <t>f_y_w</t>
-  </si>
-  <si>
     <t>h</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Norm</t>
+  </si>
+  <si>
+    <t>Material Number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hardened Surface (yes = 1, no = 0) </t>
+  </si>
+  <si>
+    <t>Yield Point at the Depth of Maximum Shear 
+ f_y [N/mm²]</t>
+  </si>
+  <si>
+    <t>Unit-Conform Hardness
+HB</t>
+  </si>
+  <si>
+    <t>E-Moduleus [N/mm²]</t>
+  </si>
+  <si>
+    <t>Radial-Strain-Coefficient-v</t>
+  </si>
+  <si>
+    <t>Depth-Of-Achieved-Hardeness-Surface z [mm]</t>
+  </si>
+  <si>
+    <t>Depth-Of-Achieved-Hardeness-Surface 
+z [mm]</t>
+  </si>
+  <si>
+    <t>Load-bearing-Width b_w [mm]</t>
+  </si>
+  <si>
+    <t>Second-Wheel-Radius r_k [mm]</t>
+  </si>
+  <si>
+    <t>Edge-Radius r_3 [mm]</t>
+  </si>
+  <si>
+    <t>Diameter D_w</t>
+  </si>
+  <si>
+    <t>Load-bearing-Width b_r [mm]</t>
+  </si>
+  <si>
+    <t>Rail-Surface-Radius r_k [mm]</t>
+  </si>
+  <si>
+    <t>EN-13001-3-3</t>
+  </si>
+  <si>
+    <t>Stacker Crane (SC) Configuration</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>j</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>o</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a </t>
+  </si>
+  <si>
+    <t>bo</t>
+  </si>
+  <si>
+    <t>res_b_min</t>
+  </si>
+  <si>
+    <t>res_w</t>
+  </si>
+  <si>
+    <t>res_r_k</t>
+  </si>
+  <si>
+    <t>res_r_3_b_min</t>
+  </si>
+  <si>
+    <t>res_contact</t>
+  </si>
+  <si>
+    <t>res_f_1</t>
+  </si>
+  <si>
+    <t>res_f_f3</t>
+  </si>
+  <si>
+    <t>res_v_r</t>
+  </si>
+  <si>
+    <t>res_v_w</t>
+  </si>
+  <si>
+    <t>res_E_r</t>
+  </si>
+  <si>
+    <t>res_E_w</t>
+  </si>
+  <si>
+    <t>res_z_r</t>
+  </si>
+  <si>
+    <t>res_z_w</t>
+  </si>
+  <si>
+    <t>res_f_y_r</t>
+  </si>
+  <si>
+    <t>res_f_y_w</t>
+  </si>
+  <si>
+    <t>res_HB_r</t>
+  </si>
+  <si>
+    <t>res_HB_w</t>
+  </si>
+  <si>
+    <t>res_E_m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">l </t>
   </si>
 </sst>
 </file>
@@ -480,7 +671,7 @@
     <numFmt numFmtId="164" formatCode="0.00000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -528,8 +719,36 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -552,8 +771,20 @@
         <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -637,13 +868,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -661,9 +916,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -702,6 +954,63 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -722,10 +1031,10 @@
     <cellStyle name="Gut" xfId="2" builtinId="26"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="22">
+  <dxfs count="24">
     <dxf>
       <font>
-        <b val="0"/>
+        <b/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
@@ -735,10 +1044,40 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color auto="1"/>
+        <color theme="0"/>
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="6" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="6" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -772,10 +1111,46 @@
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
+        <name val="Consolas"/>
+        <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -793,7 +1168,25 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -811,7 +1204,7 @@
         <name val="Consolas"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -905,7 +1298,29 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="6" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -953,7 +1368,29 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="6" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -968,83 +1405,64 @@
 </styleSheet>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Input_variables"/>
-      <sheetName val="configuration"/>
-      <sheetName val="rail_materials"/>
-      <sheetName val="wheel_materials"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="railmaterials" displayName="railmaterials" ref="A1:I8" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20" headerRowCellStyle="Gut">
-  <autoFilter ref="A1:I8"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="railmaterials" displayName="railmaterials" ref="A2:I9" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22" headerRowCellStyle="Gut">
+  <autoFilter ref="A2:I9"/>
   <tableColumns count="9">
-    <tableColumn id="1" name="name" dataDxfId="19"/>
-    <tableColumn id="2" name="norm" dataDxfId="18"/>
-    <tableColumn id="3" name="material_number" dataDxfId="17"/>
-    <tableColumn id="4" name="hardened" dataDxfId="16"/>
-    <tableColumn id="5" name="f_y" dataDxfId="15"/>
-    <tableColumn id="6" name="HB" dataDxfId="14"/>
-    <tableColumn id="7" name="E" dataDxfId="13"/>
-    <tableColumn id="8" name="v" dataDxfId="12"/>
-    <tableColumn id="9" name="z" dataDxfId="11"/>
+    <tableColumn id="1" name="Name" dataDxfId="21"/>
+    <tableColumn id="2" name="Norm" dataDxfId="20"/>
+    <tableColumn id="3" name="Material Number" dataDxfId="19"/>
+    <tableColumn id="4" name="Hardened Surface (yes = 1, no = 0) " dataDxfId="18"/>
+    <tableColumn id="5" name="Yield Point at the Depth of Maximum Shear _x000a_ f_y [N/mm²]" dataDxfId="17"/>
+    <tableColumn id="6" name="Unit-Conform Hardness_x000a_HB" dataDxfId="16"/>
+    <tableColumn id="7" name="E-Moduleus [N/mm²]" dataDxfId="15"/>
+    <tableColumn id="8" name="Radial-Strain-Coefficient-v" dataDxfId="14"/>
+    <tableColumn id="9" name="Depth-Of-Achieved-Hardeness-Surface z [mm]" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="wheelmaterials4" displayName="wheelmaterials4" ref="A1:I10" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9" headerRowCellStyle="Gut">
-  <autoFilter ref="A1:I10"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="wheelmaterials4" displayName="wheelmaterials4" ref="A2:I11" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11" headerRowCellStyle="Gut">
+  <autoFilter ref="A2:I11"/>
   <tableColumns count="9">
-    <tableColumn id="1" name="name" dataDxfId="8"/>
-    <tableColumn id="2" name="norm" dataDxfId="7"/>
-    <tableColumn id="3" name="material_number" dataDxfId="6"/>
-    <tableColumn id="4" name="hardened" dataDxfId="5"/>
-    <tableColumn id="9" name="z" dataDxfId="4"/>
-    <tableColumn id="5" name="f_y" dataDxfId="3"/>
-    <tableColumn id="6" name="HB" dataDxfId="2"/>
-    <tableColumn id="7" name="E" dataDxfId="1"/>
-    <tableColumn id="8" name="v" dataDxfId="0"/>
+    <tableColumn id="1" name="Name" dataDxfId="10"/>
+    <tableColumn id="2" name="Norm" dataDxfId="9"/>
+    <tableColumn id="3" name="Material Number" dataDxfId="8"/>
+    <tableColumn id="4" name="Hardened Surface (yes = 1, no = 0) " dataDxfId="7"/>
+    <tableColumn id="9" name="Yield Point at the Depth of Maximum Shear _x000a_ f_y [N/mm²]" dataDxfId="6"/>
+    <tableColumn id="5" name="Unit-Conform Hardness_x000a_HB" dataDxfId="5"/>
+    <tableColumn id="6" name="E-Moduleus [N/mm²]" dataDxfId="4"/>
+    <tableColumn id="7" name="Radial-Strain-Coefficient-v" dataDxfId="3"/>
+    <tableColumn id="8" name="Depth-Of-Achieved-Hardeness-Surface _x000a_z [mm]" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="wheelgeometries" displayName="wheelgeometries" ref="A1:E5" totalsRowShown="0">
-  <autoFilter ref="A1:E5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="wheelgeometries" displayName="wheelgeometries" ref="A2:E6" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A2:E6"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="name"/>
-    <tableColumn id="2" name="b"/>
-    <tableColumn id="3" name="r_k"/>
-    <tableColumn id="4" name="r_3"/>
-    <tableColumn id="5" name="D"/>
+    <tableColumn id="1" name="Name"/>
+    <tableColumn id="2" name="Load-bearing-Width b_w [mm]"/>
+    <tableColumn id="3" name="Second-Wheel-Radius r_k [mm]"/>
+    <tableColumn id="4" name="Edge-Radius r_3 [mm]"/>
+    <tableColumn id="5" name="Diameter D_w"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="railgeometries" displayName="railgeometries" ref="A1:D5" totalsRowShown="0">
-  <autoFilter ref="A1:D5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="railgeometries" displayName="railgeometries" ref="A2:D6" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A2:D6"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="name"/>
-    <tableColumn id="2" name="b"/>
-    <tableColumn id="3" name="r_k"/>
-    <tableColumn id="4" name="r_3"/>
+    <tableColumn id="1" name="Name"/>
+    <tableColumn id="2" name="Load-bearing-Width b_r [mm]"/>
+    <tableColumn id="3" name="Rail-Surface-Radius r_k [mm]"/>
+    <tableColumn id="4" name="Edge-Radius r_3 [mm]"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1347,77 +1765,77 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H50"/>
+  <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="46" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.453125" customWidth="1"/>
-    <col min="4" max="6" width="19.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.42578125" customWidth="1"/>
+    <col min="4" max="6" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
-    <col min="8" max="8" width="17.1796875" customWidth="1"/>
+    <col min="8" max="8" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="B1" s="13" t="s">
+      <c r="A1" s="40" t="s">
+        <v>139</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="40"/>
+      <c r="B2" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="C1" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="D1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="C2" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2" t="s">
         <v>108</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E2" t="s">
         <v>109</v>
       </c>
-      <c r="G1" t="s">
-        <v>118</v>
-      </c>
-      <c r="H1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="22"/>
-      <c r="B2" s="13" t="s">
+      <c r="F2" t="s">
+        <v>110</v>
+      </c>
+      <c r="G2" t="s">
+        <v>113</v>
+      </c>
+      <c r="H2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="40"/>
+      <c r="B3" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="C2" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="D2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E2" t="s">
-        <v>111</v>
-      </c>
-      <c r="F2" t="s">
-        <v>112</v>
-      </c>
-      <c r="G2" t="s">
-        <v>119</v>
-      </c>
-      <c r="H2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="22"/>
-      <c r="B3" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="13" t="s">
         <v>72</v>
       </c>
       <c r="D3" s="2">
@@ -1437,11 +1855,11 @@
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="22"/>
-      <c r="B4" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="C4" s="15" t="s">
+      <c r="A4" s="40"/>
+      <c r="B4" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4" s="14" t="s">
         <v>74</v>
       </c>
       <c r="D4" s="2">
@@ -1461,675 +1879,720 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="22"/>
-      <c r="B5" s="13" t="s">
+      <c r="A5" s="40"/>
+      <c r="B5" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="D5">
+        <v>30</v>
+      </c>
+      <c r="E5">
+        <v>450</v>
+      </c>
+      <c r="F5">
         <v>100</v>
       </c>
-      <c r="C5" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="D5" s="2">
+      <c r="G5">
+        <v>100</v>
+      </c>
+      <c r="H5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="40"/>
+      <c r="B6" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="D6" s="2">
         <v>1</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E6" s="2">
         <v>1</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F6" s="2">
         <v>1</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G6" s="2">
         <v>1</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H6" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="22"/>
-      <c r="B6" s="13" t="s">
+    <row r="7" spans="1:8">
+      <c r="A7" s="40"/>
+      <c r="B7" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="40"/>
+      <c r="B8" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="C6" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="H6" s="11" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="22"/>
-      <c r="B7" s="13" t="s">
+      <c r="C8" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="40"/>
+      <c r="B9" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="C7" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="22"/>
-      <c r="B8" s="13" t="s">
+      <c r="C9" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="D9" s="2">
+        <v>30000</v>
+      </c>
+      <c r="E9" s="2">
+        <v>1600000</v>
+      </c>
+      <c r="F9" s="2">
+        <v>40000</v>
+      </c>
+      <c r="G9" s="2">
+        <v>4000000</v>
+      </c>
+      <c r="H9" s="2">
+        <v>23000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="40"/>
+      <c r="B10" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="C8" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="D8" s="2">
-        <v>30000</v>
-      </c>
-      <c r="E8" s="2">
-        <v>1600000</v>
-      </c>
-      <c r="F8" s="2">
-        <v>40000</v>
-      </c>
-      <c r="G8" s="2">
-        <v>4000000</v>
-      </c>
-      <c r="H8" s="2">
-        <v>23000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="22"/>
-      <c r="B9" s="13" t="s">
+      <c r="C10" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="D10" s="2">
+        <v>20000</v>
+      </c>
+      <c r="E10" s="2">
+        <v>15000</v>
+      </c>
+      <c r="F10" s="2">
+        <v>18000</v>
+      </c>
+      <c r="G10" s="2">
+        <v>18000</v>
+      </c>
+      <c r="H10" s="2">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="40"/>
+      <c r="B11" t="s">
         <v>93</v>
       </c>
-      <c r="C9" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="D9" s="2">
-        <v>20000</v>
-      </c>
-      <c r="E9" s="2">
-        <v>15000</v>
-      </c>
-      <c r="F9" s="2">
-        <v>18000</v>
-      </c>
-      <c r="G9" s="2">
-        <v>18000</v>
-      </c>
-      <c r="H9" s="2">
-        <v>12000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="22"/>
-      <c r="B10" t="s">
-        <v>94</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D10" s="2">
+      <c r="C11" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D11" s="2">
         <v>100000</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E11" s="2">
         <v>100000</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F11" s="2">
         <v>100000</v>
-      </c>
-      <c r="G10" s="2">
-        <v>100000</v>
-      </c>
-      <c r="H10" s="2">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="22"/>
-      <c r="B11" t="s">
-        <v>95</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="D11" s="2">
-        <v>500000</v>
-      </c>
-      <c r="E11" s="2">
-        <v>500000</v>
-      </c>
-      <c r="F11" s="2">
-        <v>800000</v>
       </c>
       <c r="G11" s="2">
         <v>100000</v>
       </c>
       <c r="H11" s="2">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="40"/>
+      <c r="B12" t="s">
+        <v>94</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D12" s="2">
+        <v>500000</v>
+      </c>
+      <c r="E12" s="2">
+        <v>500000</v>
+      </c>
+      <c r="F12" s="2">
+        <v>800000</v>
+      </c>
+      <c r="G12" s="2">
+        <v>100000</v>
+      </c>
+      <c r="H12" s="2">
         <v>200000</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="22"/>
-      <c r="B12" t="s">
-        <v>96</v>
-      </c>
-      <c r="C12" t="s">
-        <v>85</v>
-      </c>
-      <c r="D12">
+    <row r="13" spans="1:8">
+      <c r="A13" s="40"/>
+      <c r="B13" t="s">
+        <v>95</v>
+      </c>
+      <c r="C13" t="s">
+        <v>84</v>
+      </c>
+      <c r="D13">
         <v>1</v>
       </c>
-      <c r="E12">
+      <c r="E13">
         <v>2</v>
       </c>
-      <c r="F12">
+      <c r="F13">
         <v>4</v>
       </c>
-      <c r="G12">
+      <c r="G13">
         <v>1</v>
       </c>
-      <c r="H12">
+      <c r="H13">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15" customHeight="1">
-      <c r="A13" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="B13" s="12" t="s">
+    <row r="14" spans="1:8" ht="15" customHeight="1">
+      <c r="A14" s="41" t="s">
+        <v>140</v>
+      </c>
+      <c r="B14" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C14" t="s">
         <v>38</v>
       </c>
-      <c r="D13">
+      <c r="D14">
         <v>24.9397924881983</v>
       </c>
-      <c r="E13">
+      <c r="E14">
         <v>29.846033506748501</v>
       </c>
-      <c r="F13">
+      <c r="F14">
         <v>21.549071913738601</v>
       </c>
-      <c r="G13">
+      <c r="G14">
         <v>30.724628045371599</v>
       </c>
-      <c r="H13">
+      <c r="H14">
         <v>24.603567265875999</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="23"/>
-      <c r="B14" s="12" t="s">
+    <row r="15" spans="1:8">
+      <c r="A15" s="41"/>
+      <c r="B15" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C15" t="s">
         <v>40</v>
       </c>
-      <c r="D14">
+      <c r="D15">
         <v>0.397534327540081</v>
       </c>
-      <c r="E14">
+      <c r="E15">
         <v>0.38745672969163403</v>
       </c>
-      <c r="F14">
+      <c r="F15">
         <v>0.27778552720397198</v>
       </c>
-      <c r="G14">
+      <c r="G15">
         <v>0.38853068564494597</v>
       </c>
-      <c r="H14">
+      <c r="H15">
         <v>0.39281645770158102</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="23"/>
-      <c r="B15" t="s">
+    <row r="16" spans="1:8">
+      <c r="A16" s="41"/>
+      <c r="B16" t="s">
         <v>41</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C16" t="s">
         <v>42</v>
       </c>
-      <c r="D15">
+      <c r="D16">
         <v>310.53423258511901</v>
       </c>
-      <c r="E15">
+      <c r="E16">
         <v>311.82631932244198</v>
       </c>
-      <c r="F15">
+      <c r="F16">
         <v>262.54231664112598</v>
       </c>
-      <c r="G15">
+      <c r="G16">
         <v>334.01554867815503</v>
       </c>
-      <c r="H15">
+      <c r="H16">
         <v>217.83710715883799</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="23"/>
-      <c r="B16" t="s">
+    <row r="17" spans="1:8">
+      <c r="A17" s="41"/>
+      <c r="B17" t="s">
         <v>43</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C17" t="s">
         <v>44</v>
       </c>
-      <c r="D16">
+      <c r="D17">
         <v>0.43852951083798603</v>
       </c>
-      <c r="E16">
+      <c r="E17">
         <v>0.27896020164795099</v>
       </c>
-      <c r="F16">
+      <c r="F17">
         <v>0.41639127372561502</v>
       </c>
-      <c r="G16">
+      <c r="G17">
         <v>0.36908011038102101</v>
       </c>
-      <c r="H16">
+      <c r="H17">
         <v>0.33759378483001701</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="23"/>
-      <c r="B17" t="s">
+    <row r="18" spans="1:8">
+      <c r="A18" s="41"/>
+      <c r="B18" t="s">
         <v>45</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C18" t="s">
         <v>46</v>
       </c>
-      <c r="D17">
+      <c r="D18">
         <v>9592.8821295104699</v>
       </c>
-      <c r="E17">
+      <c r="E18">
         <v>13728.6250951821</v>
       </c>
-      <c r="F17">
+      <c r="F18">
         <v>9530.9428397424908</v>
       </c>
-      <c r="G17">
+      <c r="G18">
         <v>11844.471056845599</v>
       </c>
-      <c r="H17">
+      <c r="H18">
         <v>7039.1850549506698</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="23"/>
-      <c r="B18" t="s">
+    <row r="19" spans="1:8">
+      <c r="A19" s="41"/>
+      <c r="B19" t="s">
         <v>47</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C19" t="s">
         <v>48</v>
       </c>
-      <c r="D18">
+      <c r="D19">
         <v>6.9859353305379797</v>
       </c>
-      <c r="E18">
+      <c r="E19">
         <v>4.8667038063889603</v>
       </c>
-      <c r="F18">
+      <c r="F19">
         <v>5.9682746322479998</v>
       </c>
-      <c r="G18">
+      <c r="G19">
         <v>7.6920989582716999</v>
       </c>
-      <c r="H18">
+      <c r="H19">
         <v>7.9973902757422897</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="23"/>
-      <c r="B19" t="s">
+    <row r="20" spans="1:8">
+      <c r="A20" s="41"/>
+      <c r="B20" t="s">
         <v>49</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C20" t="s">
         <v>50</v>
       </c>
-      <c r="D19">
+      <c r="D20">
         <v>0.36032232455732299</v>
       </c>
-      <c r="E19">
+      <c r="E20">
         <v>0.43263553136410199</v>
       </c>
-      <c r="F19">
+      <c r="F20">
         <v>0.311870213321776</v>
       </c>
-      <c r="G19">
+      <c r="G20">
         <v>0.34484796209278801</v>
       </c>
-      <c r="H19">
+      <c r="H20">
         <v>0.43685550941856799</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="23"/>
-      <c r="B20" t="s">
+    <row r="21" spans="1:8">
+      <c r="A21" s="41"/>
+      <c r="B21" t="s">
         <v>51</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C21" t="s">
         <v>52</v>
       </c>
-      <c r="D20">
+      <c r="D21">
         <v>235.360704664796</v>
       </c>
-      <c r="E20">
+      <c r="E21">
         <v>208.806759033595</v>
       </c>
-      <c r="F20">
+      <c r="F21">
         <v>226.06765407211699</v>
       </c>
-      <c r="G20">
+      <c r="G21">
         <v>392.86734368371702</v>
       </c>
-      <c r="H20">
+      <c r="H21">
         <v>391.55736926069602</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="23"/>
-      <c r="B21" t="s">
+    <row r="22" spans="1:8">
+      <c r="A22" s="41"/>
+      <c r="B22" t="s">
         <v>53</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C22" t="s">
         <v>54</v>
       </c>
-      <c r="D21">
+      <c r="D22">
         <v>3620.8448324163101</v>
       </c>
-      <c r="E21">
+      <c r="E22">
         <v>2311.15858694705</v>
       </c>
-      <c r="F21">
+      <c r="F22">
         <v>2343.2994179618399</v>
       </c>
-      <c r="G21">
+      <c r="G22">
         <v>4284.9699230713404</v>
       </c>
-      <c r="H21">
+      <c r="H22">
         <v>3659.2272904198899</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="23"/>
-      <c r="B22" t="s">
+    <row r="23" spans="1:8">
+      <c r="A23" s="41"/>
+      <c r="B23" t="s">
         <v>55</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C23" t="s">
         <v>56</v>
       </c>
-      <c r="D22">
+      <c r="D23">
         <v>1.13373577673032</v>
       </c>
-      <c r="E22">
+      <c r="E23">
         <v>2.4258179969420199</v>
       </c>
-      <c r="F22">
+      <c r="F23">
         <v>2.3873285971102698</v>
       </c>
-      <c r="G22">
+      <c r="G23">
         <v>1.4564750409017799</v>
       </c>
-      <c r="H22">
+      <c r="H23">
         <v>0.99721191005946297</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="23"/>
-      <c r="B23" t="s">
+    <row r="24" spans="1:8">
+      <c r="A24" s="41"/>
+      <c r="B24" t="s">
         <v>57</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C24" t="s">
         <v>58</v>
       </c>
-      <c r="D23">
+      <c r="D24">
         <v>0.67575877439752896</v>
       </c>
-      <c r="E23">
+      <c r="E24">
         <v>0.51712000434017502</v>
       </c>
-      <c r="F23">
+      <c r="F24">
         <v>0.801477721483979</v>
       </c>
-      <c r="G23">
+      <c r="G24">
         <v>9.8010774605840997E-2</v>
       </c>
-      <c r="H23">
+      <c r="H24">
         <v>0.74159415955053198</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="23"/>
-      <c r="B24" t="s">
+    <row r="25" spans="1:8">
+      <c r="A25" s="41"/>
+      <c r="B25" t="s">
         <v>59</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C25" t="s">
         <v>60</v>
       </c>
-      <c r="D24">
+      <c r="D25">
         <v>3.8387980542432998</v>
       </c>
-      <c r="E24">
+      <c r="E25">
         <v>1.8776339003870799</v>
       </c>
-      <c r="F24">
+      <c r="F25">
         <v>3.3657208787845398</v>
       </c>
-      <c r="G24">
+      <c r="G25">
         <v>2.4178541756165899</v>
       </c>
-      <c r="H24">
+      <c r="H25">
         <v>1.56466211459187</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="23"/>
-      <c r="B25" t="s">
+    <row r="26" spans="1:8">
+      <c r="A26" s="41"/>
+      <c r="B26" t="s">
         <v>61</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C26" t="s">
         <v>62</v>
       </c>
-      <c r="D25">
+      <c r="D26">
         <v>0.82317441160238602</v>
       </c>
-      <c r="E25">
+      <c r="E26">
         <v>0.63680145228157503</v>
       </c>
-      <c r="F25">
+      <c r="F26">
         <v>0.85382760203728802</v>
       </c>
-      <c r="G25">
+      <c r="G26">
         <v>0.594424181188418</v>
       </c>
-      <c r="H25">
+      <c r="H26">
         <v>0.58201942471427504</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="23"/>
-      <c r="B26" t="s">
+    <row r="27" spans="1:8">
+      <c r="A27" s="41"/>
+      <c r="B27" t="s">
         <v>63</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C27" t="s">
         <v>64</v>
       </c>
-      <c r="D26">
+      <c r="D27">
         <v>2351.0358557609202</v>
       </c>
-      <c r="E26">
+      <c r="E27">
         <v>4305.6905785423696</v>
       </c>
-      <c r="F26">
+      <c r="F27">
         <v>5592.7916508867802</v>
       </c>
-      <c r="G26">
+      <c r="G27">
         <v>1093.0004954073299</v>
       </c>
-      <c r="H26">
+      <c r="H27">
         <v>5316.4232733114604</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="23"/>
-      <c r="B27" t="s">
+    <row r="28" spans="1:8">
+      <c r="A28" s="41"/>
+      <c r="B28" t="s">
         <v>65</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C28" t="s">
         <v>66</v>
       </c>
-      <c r="D27">
+      <c r="D28">
         <v>479.56427978543297</v>
       </c>
-      <c r="E27">
+      <c r="E28">
         <v>342.07526272382</v>
       </c>
-      <c r="F27">
+      <c r="F28">
         <v>629.09549703360005</v>
       </c>
-      <c r="G27">
+      <c r="G28">
         <v>1336.8970567521501</v>
       </c>
-      <c r="H27">
+      <c r="H28">
         <v>1431.3338377950799</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="23"/>
-      <c r="B28" t="s">
+    <row r="29" spans="1:8">
+      <c r="A29" s="41"/>
+      <c r="B29" t="s">
         <v>67</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C29" t="s">
         <v>68</v>
       </c>
-      <c r="D28">
+      <c r="D29">
         <v>1.5209241133552001</v>
       </c>
-      <c r="E28">
+      <c r="E29">
         <v>1.4611356146706</v>
       </c>
-      <c r="F28">
+      <c r="F29">
         <v>1.17459338972312</v>
       </c>
-      <c r="G28">
+      <c r="G29">
         <v>1.17980028181748</v>
       </c>
-      <c r="H28">
+      <c r="H29">
         <v>0.97421919684422997</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="23"/>
-      <c r="B29" t="s">
+    <row r="30" spans="1:8">
+      <c r="A30" s="41"/>
+      <c r="B30" t="s">
         <v>69</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C30" t="s">
         <v>70</v>
       </c>
-      <c r="D29">
+      <c r="D30">
         <v>148.023377589456</v>
       </c>
-      <c r="E29">
+      <c r="E30">
         <v>196.39317107510001</v>
       </c>
-      <c r="F29">
+      <c r="F30">
         <v>170.37252984731199</v>
       </c>
-      <c r="G29">
+      <c r="G30">
         <v>285.26395874702098</v>
       </c>
-      <c r="H29">
+      <c r="H30">
         <v>203.71546054260199</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="24" t="s">
-        <v>105</v>
-      </c>
-      <c r="B30" t="s">
-        <v>102</v>
-      </c>
-      <c r="C30" t="s">
-        <v>72</v>
-      </c>
-    </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="24"/>
+      <c r="A31" s="42" t="s">
+        <v>103</v>
+      </c>
       <c r="B31" t="s">
+        <v>100</v>
+      </c>
+      <c r="C31" t="s">
+        <v>152</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="42"/>
+      <c r="B32" t="s">
         <v>78</v>
       </c>
-      <c r="C31" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="24"/>
-      <c r="B32" t="s">
-        <v>103</v>
-      </c>
       <c r="C32" t="s">
-        <v>104</v>
+        <v>153</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="25" t="s">
-        <v>123</v>
-      </c>
+      <c r="A33" s="42"/>
       <c r="B33" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C33" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="43" t="s">
+        <v>116</v>
+      </c>
+      <c r="B34" t="s">
+        <v>118</v>
+      </c>
+      <c r="C34" t="s">
+        <v>154</v>
+      </c>
+      <c r="D34">
         <v>10</v>
       </c>
-      <c r="E33">
+      <c r="E34">
         <v>100</v>
-      </c>
-      <c r="F33">
-        <v>100</v>
-      </c>
-      <c r="G33">
-        <v>100</v>
-      </c>
-      <c r="H33">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="A34" s="25"/>
-      <c r="B34" t="s">
-        <v>78</v>
-      </c>
-      <c r="C34" t="s">
-        <v>117</v>
-      </c>
-      <c r="D34">
-        <v>30</v>
-      </c>
-      <c r="E34">
-        <v>450</v>
       </c>
       <c r="F34">
         <v>100</v>
@@ -2142,109 +2605,108 @@
       </c>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="25"/>
+      <c r="A35" s="43"/>
       <c r="B35" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="C35" t="s">
-        <v>79</v>
+        <v>155</v>
       </c>
       <c r="D35">
+        <v>30</v>
+      </c>
+      <c r="E35">
+        <v>450</v>
+      </c>
+      <c r="F35">
+        <v>100</v>
+      </c>
+      <c r="G35">
+        <v>100</v>
+      </c>
+      <c r="H35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="43"/>
+      <c r="B36" t="s">
+        <v>120</v>
+      </c>
+      <c r="C36" t="s">
+        <v>156</v>
+      </c>
+      <c r="D36">
         <v>200</v>
       </c>
-      <c r="E35">
+      <c r="E36">
         <v>30000</v>
       </c>
-      <c r="F35">
-        <v>0</v>
-      </c>
-      <c r="G35">
-        <v>0</v>
-      </c>
-      <c r="H35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="A36" s="25"/>
-      <c r="B36" t="s">
-        <v>125</v>
-      </c>
-      <c r="C36" t="s">
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="43"/>
+      <c r="B37" t="s">
+        <v>121</v>
+      </c>
+      <c r="C37" t="s">
+        <v>157</v>
+      </c>
+      <c r="D37">
+        <v>1000</v>
+      </c>
+      <c r="E37">
+        <v>360</v>
+      </c>
+      <c r="F37">
+        <v>10</v>
+      </c>
+      <c r="G37">
+        <v>11</v>
+      </c>
+      <c r="H37">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="43"/>
+      <c r="B38" t="s">
+        <v>122</v>
+      </c>
+      <c r="C38" t="s">
+        <v>158</v>
+      </c>
+      <c r="D38" t="s">
         <v>114</v>
       </c>
-      <c r="D36">
-        <v>1000</v>
-      </c>
-      <c r="E36">
-        <v>360</v>
-      </c>
-      <c r="F36">
-        <v>10</v>
-      </c>
-      <c r="G36">
-        <v>11</v>
-      </c>
-      <c r="H36">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="A37" s="25"/>
-      <c r="B37" t="s">
-        <v>126</v>
-      </c>
-      <c r="C37" t="s">
+      <c r="E38" t="s">
         <v>115</v>
       </c>
-      <c r="D37" t="s">
-        <v>120</v>
-      </c>
-      <c r="E37" t="s">
-        <v>121</v>
-      </c>
-      <c r="F37" t="s">
-        <v>121</v>
-      </c>
-      <c r="G37" t="s">
-        <v>121</v>
-      </c>
-      <c r="H37" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="A38" s="25"/>
-      <c r="B38" t="s">
-        <v>127</v>
-      </c>
-      <c r="C38" t="s">
-        <v>116</v>
-      </c>
-      <c r="D38">
-        <v>1</v>
-      </c>
-      <c r="E38">
-        <v>1</v>
-      </c>
-      <c r="F38">
-        <v>0.85</v>
-      </c>
-      <c r="G38">
-        <f>(0.58+0.15*(G36/G34))/0.7</f>
-        <v>0.85214285714285709</v>
-      </c>
-      <c r="H38">
-        <v>0.85</v>
+      <c r="F38" t="s">
+        <v>115</v>
+      </c>
+      <c r="G38" t="s">
+        <v>115</v>
+      </c>
+      <c r="H38" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="25"/>
+      <c r="A39" s="43"/>
       <c r="B39" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="C39" t="s">
-        <v>122</v>
+        <v>159</v>
       </c>
       <c r="D39">
         <v>1</v>
@@ -2253,101 +2715,102 @@
         <v>1</v>
       </c>
       <c r="F39">
+        <v>0.85</v>
+      </c>
+      <c r="G39">
+        <f>(0.58+0.15*(G37/G35))/0.7</f>
+        <v>0.85214285714285709</v>
+      </c>
+      <c r="H39">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="43"/>
+      <c r="B40" t="s">
+        <v>142</v>
+      </c>
+      <c r="C40" t="s">
+        <v>160</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40">
         <f>(0.005/F3)^(1/3)</f>
         <v>0.94103602888102855</v>
       </c>
-      <c r="G39">
-        <f t="shared" ref="G39" si="0">(0.005/G3)^(1/3)</f>
+      <c r="G40">
+        <f t="shared" ref="G40" si="0">(0.005/G3)^(1/3)</f>
         <v>0.94103602888102855</v>
       </c>
-      <c r="H39">
+      <c r="H40">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
-      <c r="A40" s="25" t="s">
-        <v>124</v>
-      </c>
-      <c r="B40" t="s">
-        <v>102</v>
-      </c>
-      <c r="C40" t="s">
-        <v>129</v>
-      </c>
-      <c r="D40">
+    <row r="41" spans="1:8">
+      <c r="A41" s="43" t="s">
+        <v>117</v>
+      </c>
+      <c r="B41" t="s">
+        <v>143</v>
+      </c>
+      <c r="C41" t="s">
+        <v>161</v>
+      </c>
+      <c r="D41">
         <v>0.3</v>
       </c>
-      <c r="E40">
+      <c r="E41">
         <v>0.3</v>
       </c>
-      <c r="F40">
+      <c r="F41">
         <v>0.3</v>
       </c>
-      <c r="G40">
+      <c r="G41">
         <v>0.3</v>
       </c>
-      <c r="H40">
+      <c r="H41">
         <v>0.3</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
-      <c r="A41" s="25"/>
-      <c r="B41" t="s">
-        <v>78</v>
-      </c>
-      <c r="C41" t="s">
-        <v>130</v>
-      </c>
-      <c r="D41">
+    <row r="42" spans="1:8">
+      <c r="A42" s="43"/>
+      <c r="B42" t="s">
+        <v>172</v>
+      </c>
+      <c r="C42" t="s">
+        <v>162</v>
+      </c>
+      <c r="D42">
         <v>0.2</v>
       </c>
-      <c r="E41">
+      <c r="E42">
         <v>0.2</v>
       </c>
-      <c r="F41">
+      <c r="F42">
         <v>0.2</v>
       </c>
-      <c r="G41">
+      <c r="G42">
         <v>0.2</v>
       </c>
-      <c r="H41">
+      <c r="H42">
         <v>0.2</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
-      <c r="A42" s="25"/>
-      <c r="B42" t="s">
-        <v>103</v>
-      </c>
-      <c r="C42" t="s">
-        <v>131</v>
-      </c>
-      <c r="D42">
+    <row r="43" spans="1:8">
+      <c r="A43" s="43"/>
+      <c r="B43" t="s">
+        <v>144</v>
+      </c>
+      <c r="C43" t="s">
+        <v>163</v>
+      </c>
+      <c r="D43">
         <v>210000</v>
-      </c>
-      <c r="E42">
-        <v>210000</v>
-      </c>
-      <c r="F42">
-        <v>210000</v>
-      </c>
-      <c r="G42">
-        <v>210000</v>
-      </c>
-      <c r="H42">
-        <v>210000</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
-      <c r="A43" s="25"/>
-      <c r="B43" t="s">
-        <v>102</v>
-      </c>
-      <c r="C43" t="s">
-        <v>132</v>
-      </c>
-      <c r="D43">
-        <v>177000</v>
       </c>
       <c r="E43">
         <v>210000</v>
@@ -2363,188 +2826,212 @@
       </c>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="25"/>
+      <c r="A44" s="43"/>
       <c r="B44" t="s">
-        <v>78</v>
+        <v>145</v>
       </c>
       <c r="C44" t="s">
-        <v>133</v>
+        <v>164</v>
       </c>
       <c r="D44">
-        <v>0</v>
+        <v>177000</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>210000</v>
       </c>
       <c r="F44">
-        <v>0</v>
+        <v>210000</v>
       </c>
       <c r="G44">
-        <v>0</v>
+        <v>210000</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>210000</v>
       </c>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="25"/>
+      <c r="A45" s="43"/>
       <c r="B45" t="s">
-        <v>103</v>
+        <v>146</v>
       </c>
       <c r="C45" t="s">
-        <v>134</v>
+        <v>165</v>
       </c>
       <c r="D45">
         <v>0</v>
       </c>
       <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="43"/>
+      <c r="B46" t="s">
+        <v>147</v>
+      </c>
+      <c r="C46" t="s">
+        <v>166</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
         <v>10</v>
       </c>
-      <c r="F45">
+      <c r="F46">
         <v>10</v>
       </c>
-      <c r="G45">
+      <c r="G46">
         <v>10</v>
       </c>
-      <c r="H45">
+      <c r="H46">
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
-      <c r="A46" s="25"/>
-      <c r="B46" t="s">
+    <row r="47" spans="1:8">
+      <c r="A47" s="43"/>
+      <c r="B47" t="s">
+        <v>148</v>
+      </c>
+      <c r="C47" t="s">
+        <v>167</v>
+      </c>
+      <c r="D47">
+        <v>760</v>
+      </c>
+      <c r="E47">
+        <v>360</v>
+      </c>
+      <c r="F47">
+        <v>360</v>
+      </c>
+      <c r="G47">
+        <v>360</v>
+      </c>
+      <c r="H47">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="43"/>
+      <c r="B48" t="s">
+        <v>149</v>
+      </c>
+      <c r="C48" t="s">
+        <v>168</v>
+      </c>
+      <c r="D48">
+        <v>600</v>
+      </c>
+      <c r="E48">
+        <v>420</v>
+      </c>
+      <c r="F48">
+        <v>420</v>
+      </c>
+      <c r="G48">
+        <v>420</v>
+      </c>
+      <c r="H48">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="43"/>
+      <c r="B49" t="s">
+        <v>102</v>
+      </c>
+      <c r="C49" t="s">
+        <v>169</v>
+      </c>
+      <c r="D49">
+        <v>225</v>
+      </c>
+      <c r="E49">
         <v>125</v>
       </c>
-      <c r="C46" t="s">
-        <v>135</v>
-      </c>
-      <c r="D46">
-        <v>760</v>
-      </c>
-      <c r="E46">
-        <v>360</v>
-      </c>
-      <c r="F46">
-        <v>360</v>
-      </c>
-      <c r="G46">
-        <v>360</v>
-      </c>
-      <c r="H46">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
-      <c r="A47" s="25"/>
-      <c r="B47" t="s">
-        <v>126</v>
-      </c>
-      <c r="C47" t="s">
-        <v>139</v>
-      </c>
-      <c r="D47">
-        <v>600</v>
-      </c>
-      <c r="E47">
-        <v>420</v>
-      </c>
-      <c r="F47">
-        <v>420</v>
-      </c>
-      <c r="G47">
-        <v>420</v>
-      </c>
-      <c r="H47">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
-      <c r="A48" s="25"/>
-      <c r="B48" t="s">
-        <v>127</v>
-      </c>
-      <c r="C48" t="s">
-        <v>136</v>
-      </c>
-      <c r="D48">
-        <v>225</v>
-      </c>
-      <c r="E48">
+      <c r="F49">
         <v>125</v>
       </c>
-      <c r="F48">
+      <c r="G49">
         <v>125</v>
       </c>
-      <c r="G48">
+      <c r="H49">
         <v>125</v>
       </c>
-      <c r="H48">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
-      <c r="A49" s="25"/>
-      <c r="B49" t="s">
-        <v>128</v>
-      </c>
-      <c r="C49" t="s">
-        <v>137</v>
-      </c>
-      <c r="D49">
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="43"/>
+      <c r="B50" t="s">
+        <v>150</v>
+      </c>
+      <c r="C50" t="s">
+        <v>170</v>
+      </c>
+      <c r="D50">
         <v>210</v>
       </c>
-      <c r="E49">
+      <c r="E50">
         <v>255</v>
       </c>
-      <c r="F49">
+      <c r="F50">
         <v>255</v>
       </c>
-      <c r="G49">
+      <c r="G50">
         <v>255</v>
       </c>
-      <c r="H49">
+      <c r="H50">
         <v>255</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
-      <c r="A50" s="25"/>
-      <c r="B50" t="s">
-        <v>140</v>
-      </c>
-      <c r="C50" t="s">
-        <v>138</v>
-      </c>
-      <c r="D50">
-        <f>(2*D42*D43)/(D42+D43)</f>
+    <row r="51" spans="1:8">
+      <c r="A51" s="43"/>
+      <c r="B51" t="s">
+        <v>151</v>
+      </c>
+      <c r="C51" t="s">
+        <v>171</v>
+      </c>
+      <c r="D51">
+        <f>(2*D43*D44)/(D43+D44)</f>
         <v>192093.02325581395</v>
       </c>
-      <c r="E50">
-        <f t="shared" ref="E50:H50" si="1">(2*E42*E43)/(E42+E43)</f>
+      <c r="E51">
+        <f t="shared" ref="E51:H51" si="1">(2*E43*E44)/(E43+E44)</f>
         <v>210000</v>
       </c>
-      <c r="F50">
+      <c r="F51">
         <f t="shared" si="1"/>
         <v>210000</v>
       </c>
-      <c r="G50">
+      <c r="G51">
         <f t="shared" si="1"/>
         <v>210000</v>
       </c>
-      <c r="H50">
+      <c r="H51">
         <f t="shared" si="1"/>
         <v>210000</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A1:A12"/>
-    <mergeCell ref="A13:A29"/>
-    <mergeCell ref="A30:A32"/>
-    <mergeCell ref="A33:A39"/>
-    <mergeCell ref="A40:A50"/>
+    <mergeCell ref="A1:A13"/>
+    <mergeCell ref="A14:A30"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="A34:A40"/>
+    <mergeCell ref="A41:A51"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Note" prompt="If the desired material does not figrue on the list, please add it as well as its following parameters to the list in the worksheet &quot;rail and wheel materials&quot;" sqref="D7:H7"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Note" prompt="If the desired material does not figrue on the list, please add it as well as its following parameters to the list in the worksheet &quot;rail and wheel materials&quot;" sqref="D8:H8"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2552,81 +3039,85 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="I9" sqref="A1:I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.453125" customWidth="1"/>
+    <col min="1" max="1" width="18.42578125" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="11.7265625" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" customWidth="1"/>
+    <col min="5" max="6" width="11.42578125" customWidth="1"/>
+    <col min="7" max="7" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:9" ht="14.25" customHeight="1">
+      <c r="A1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="2" t="s">
+      <c r="E1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="24" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" s="4">
-        <v>0</v>
-      </c>
-      <c r="E2" s="4">
-        <v>360</v>
-      </c>
-      <c r="F2" s="4">
+    <row r="2" spans="1:9" ht="120">
+      <c r="A2" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="C2" s="25" t="s">
         <v>125</v>
       </c>
-      <c r="G2" s="4">
-        <v>210000</v>
-      </c>
-      <c r="H2" s="21">
-        <v>0.3</v>
-      </c>
-      <c r="I2" s="4">
-        <v>0</v>
+      <c r="D2" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="F2" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="H2" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="I2" s="26" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>14</v>
@@ -2638,15 +3129,15 @@
         <v>0</v>
       </c>
       <c r="E3" s="4">
-        <v>410</v>
+        <v>360</v>
       </c>
       <c r="F3" s="4">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="G3" s="4">
         <v>210000</v>
       </c>
-      <c r="H3" s="21">
+      <c r="H3" s="20">
         <v>0.3</v>
       </c>
       <c r="I3" s="4">
@@ -2655,7 +3146,7 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>14</v>
@@ -2667,15 +3158,15 @@
         <v>0</v>
       </c>
       <c r="E4" s="4">
-        <v>520</v>
+        <v>410</v>
       </c>
       <c r="F4" s="4">
-        <v>175</v>
+        <v>145</v>
       </c>
       <c r="G4" s="4">
         <v>210000</v>
       </c>
-      <c r="H4" s="21">
+      <c r="H4" s="20">
         <v>0.3</v>
       </c>
       <c r="I4" s="4">
@@ -2684,27 +3175,27 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>21</v>
+        <v>14</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="D5" s="4">
         <v>0</v>
       </c>
       <c r="E5" s="4">
-        <v>760</v>
+        <v>520</v>
       </c>
       <c r="F5" s="4">
-        <v>225</v>
+        <v>175</v>
       </c>
       <c r="G5" s="4">
         <v>210000</v>
       </c>
-      <c r="H5" s="21">
+      <c r="H5" s="20">
         <v>0.3</v>
       </c>
       <c r="I5" s="4">
@@ -2713,27 +3204,27 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D6" s="4">
         <v>0</v>
       </c>
       <c r="E6" s="4">
-        <v>520</v>
+        <v>760</v>
       </c>
       <c r="F6" s="4">
-        <v>155</v>
+        <v>225</v>
       </c>
       <c r="G6" s="4">
         <v>210000</v>
       </c>
-      <c r="H6" s="21">
+      <c r="H6" s="20">
         <v>0.3</v>
       </c>
       <c r="I6" s="4">
@@ -2742,27 +3233,27 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>23</v>
+      <c r="C7" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="D7" s="4">
         <v>0</v>
       </c>
       <c r="E7" s="4">
-        <v>640</v>
+        <v>520</v>
       </c>
       <c r="F7" s="4">
-        <v>190</v>
+        <v>155</v>
       </c>
       <c r="G7" s="4">
         <v>210000</v>
       </c>
-      <c r="H7" s="21">
+      <c r="H7" s="20">
         <v>0.3</v>
       </c>
       <c r="I7" s="4">
@@ -2771,30 +3262,59 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D8" s="4">
         <v>0</v>
       </c>
       <c r="E8" s="4">
-        <v>870</v>
+        <v>640</v>
       </c>
       <c r="F8" s="4">
-        <v>260</v>
+        <v>190</v>
       </c>
       <c r="G8" s="4">
         <v>210000</v>
       </c>
-      <c r="H8" s="21">
+      <c r="H8" s="20">
         <v>0.3</v>
       </c>
       <c r="I8" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0</v>
+      </c>
+      <c r="E9" s="4">
+        <v>870</v>
+      </c>
+      <c r="F9" s="4">
+        <v>260</v>
+      </c>
+      <c r="G9" s="4">
+        <v>210000</v>
+      </c>
+      <c r="H9" s="20">
+        <v>0.3</v>
+      </c>
+      <c r="I9" s="4">
         <v>0</v>
       </c>
     </row>
@@ -2802,383 +3322,416 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:I11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="34" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="75">
+      <c r="A2" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="F2" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="H2" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="I2" s="26" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="9">
+        <v>1.6552</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0</v>
+      </c>
+      <c r="E3" s="3">
+        <v>520</v>
+      </c>
+      <c r="F3" s="27">
+        <v>1000</v>
+      </c>
+      <c r="G3" s="27">
+        <v>210000</v>
+      </c>
+      <c r="H3" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="I3" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="8">
+        <v>0.70599999999999996</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0</v>
+      </c>
+      <c r="E4" s="7">
+        <v>600</v>
+      </c>
+      <c r="F4" s="28">
+        <v>210</v>
+      </c>
+      <c r="G4" s="29">
+        <v>177000</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="I4" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="8">
+        <v>0.70699999999999996</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0</v>
+      </c>
+      <c r="E5" s="7">
+        <v>700</v>
+      </c>
+      <c r="F5" s="30">
+        <v>245</v>
+      </c>
+      <c r="G5" s="27">
+        <v>180000</v>
+      </c>
+      <c r="H5" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="I5" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="8">
+        <v>1.7218</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0</v>
+      </c>
+      <c r="E6" s="7">
+        <v>650</v>
+      </c>
+      <c r="F6" s="28">
+        <v>190</v>
+      </c>
+      <c r="G6" s="29">
+        <v>210000</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="I6" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="8">
+        <v>1.7224999999999999</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0</v>
+      </c>
+      <c r="E7" s="7">
+        <v>700</v>
+      </c>
+      <c r="F7" s="30">
+        <v>210</v>
+      </c>
+      <c r="G7" s="27">
+        <v>180000</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="I7" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="8">
+        <v>1.7224999999999999</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0</v>
+      </c>
+      <c r="E8" s="7">
+        <v>750</v>
+      </c>
+      <c r="F8" s="28">
+        <v>225</v>
+      </c>
+      <c r="G8" s="29">
+        <v>210000</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="8">
+        <v>1.6956</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0</v>
+      </c>
+      <c r="E9" s="7">
+        <v>1000</v>
+      </c>
+      <c r="F9" s="30">
+        <v>295</v>
+      </c>
+      <c r="G9" s="27">
+        <v>210000</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="8">
+        <v>1.7224999999999999</v>
+      </c>
+      <c r="D10" s="3">
+        <v>1</v>
+      </c>
+      <c r="E10" s="7">
+        <v>420</v>
+      </c>
+      <c r="F10" s="28">
+        <v>255</v>
+      </c>
+      <c r="G10" s="29">
+        <v>210000</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="I10" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="19">
+        <v>1.7224999999999999</v>
+      </c>
+      <c r="D11" s="18">
+        <v>1</v>
+      </c>
+      <c r="E11" s="18">
+        <v>420</v>
+      </c>
+      <c r="F11" s="30">
+        <v>250</v>
+      </c>
+      <c r="G11" s="31">
+        <v>210000</v>
+      </c>
+      <c r="H11" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="I11" s="17">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection sqref="A1:E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
-  <cols>
-    <col min="1" max="1" width="19.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.453125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="10">
-        <v>1.6552</v>
-      </c>
-      <c r="D2" s="3">
-        <v>0</v>
-      </c>
-      <c r="E2" s="3">
-        <v>0</v>
-      </c>
-      <c r="F2" s="3">
-        <v>520</v>
-      </c>
-      <c r="G2" s="3">
-        <v>1000</v>
-      </c>
-      <c r="H2" s="3">
-        <v>210000</v>
-      </c>
-      <c r="I2" s="8">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="9">
-        <v>0.70599999999999996</v>
-      </c>
-      <c r="D3" s="3">
-        <v>0</v>
-      </c>
-      <c r="E3" s="3">
-        <v>0</v>
-      </c>
-      <c r="F3" s="8">
-        <v>600</v>
-      </c>
-      <c r="G3" s="8">
-        <v>210</v>
-      </c>
-      <c r="H3" s="3">
-        <v>177000</v>
-      </c>
-      <c r="I3" s="8">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="9">
-        <v>0.70699999999999996</v>
-      </c>
-      <c r="D4" s="3">
-        <v>0</v>
-      </c>
-      <c r="E4" s="3">
-        <v>0</v>
-      </c>
-      <c r="F4" s="8">
-        <v>700</v>
-      </c>
-      <c r="G4" s="8">
-        <v>245</v>
-      </c>
-      <c r="H4" s="3">
-        <v>180000</v>
-      </c>
-      <c r="I4" s="8">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="9">
-        <v>1.7218</v>
-      </c>
-      <c r="D5" s="3">
-        <v>0</v>
-      </c>
-      <c r="E5" s="3">
-        <v>0</v>
-      </c>
-      <c r="F5" s="8">
-        <v>650</v>
-      </c>
-      <c r="G5" s="8">
-        <v>190</v>
-      </c>
-      <c r="H5" s="3">
-        <v>210000</v>
-      </c>
-      <c r="I5" s="8">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="9">
-        <v>1.7224999999999999</v>
-      </c>
-      <c r="D6" s="3">
-        <v>0</v>
-      </c>
-      <c r="E6" s="3">
-        <v>0</v>
-      </c>
-      <c r="F6" s="8">
-        <v>700</v>
-      </c>
-      <c r="G6" s="8">
-        <v>210</v>
-      </c>
-      <c r="H6" s="3">
-        <v>180000</v>
-      </c>
-      <c r="I6" s="8">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="9">
-        <v>1.7224999999999999</v>
-      </c>
-      <c r="D7" s="3">
-        <v>0</v>
-      </c>
-      <c r="E7" s="3">
-        <v>0</v>
-      </c>
-      <c r="F7" s="8">
-        <v>750</v>
-      </c>
-      <c r="G7" s="8">
-        <v>225</v>
-      </c>
-      <c r="H7" s="3">
-        <v>210000</v>
-      </c>
-      <c r="I7" s="8">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="9">
-        <v>1.6956</v>
-      </c>
-      <c r="D8" s="3">
-        <v>0</v>
-      </c>
-      <c r="E8" s="3">
-        <v>0</v>
-      </c>
-      <c r="F8" s="8">
-        <v>1000</v>
-      </c>
-      <c r="G8" s="8">
-        <v>295</v>
-      </c>
-      <c r="H8" s="3">
-        <v>210000</v>
-      </c>
-      <c r="I8" s="8">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="9">
-        <v>1.7224999999999999</v>
-      </c>
-      <c r="D9" s="3">
-        <v>1</v>
-      </c>
-      <c r="E9" s="3">
-        <v>10</v>
-      </c>
-      <c r="F9" s="8">
-        <v>420</v>
-      </c>
-      <c r="G9" s="8">
-        <v>255</v>
-      </c>
-      <c r="H9" s="3">
-        <v>210000</v>
-      </c>
-      <c r="I9" s="8">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="B10" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="20">
-        <v>1.7224999999999999</v>
-      </c>
-      <c r="D10" s="19">
-        <v>1</v>
-      </c>
-      <c r="E10" s="18">
-        <v>10</v>
-      </c>
-      <c r="F10" s="19">
-        <v>420</v>
-      </c>
-      <c r="G10" s="19">
-        <v>250</v>
-      </c>
-      <c r="H10" s="18">
-        <v>210000</v>
-      </c>
-      <c r="I10" s="19">
-        <v>0.2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L39" sqref="L39"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" t="s">
+      <c r="A1" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="36" t="s">
         <v>78</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="36" t="s">
         <v>79</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="36" t="s">
         <v>80</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="37" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>107</v>
-      </c>
-      <c r="B2">
-        <v>70</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>20</v>
-      </c>
-      <c r="E2">
-        <v>450</v>
+      <c r="A2" s="38" t="s">
+        <v>123</v>
+      </c>
+      <c r="B2" s="39" t="s">
+        <v>133</v>
+      </c>
+      <c r="C2" s="39" t="s">
+        <v>134</v>
+      </c>
+      <c r="D2" s="39" t="s">
+        <v>135</v>
+      </c>
+      <c r="E2" s="39" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B3">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="C3">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>360</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <v>450</v>
@@ -3186,16 +3739,16 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B4">
         <v>100</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="D4">
-        <v>10</v>
+        <v>360</v>
       </c>
       <c r="E4">
         <v>450</v>
@@ -3203,7 +3756,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="B5">
         <v>100</v>
@@ -3212,9 +3765,26 @@
         <v>0</v>
       </c>
       <c r="D5">
+        <v>10</v>
+      </c>
+      <c r="E5">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>112</v>
+      </c>
+      <c r="B6">
+        <v>100</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
         <v>11</v>
       </c>
-      <c r="E5">
+      <c r="E6">
         <v>450</v>
       </c>
     </row>
@@ -3228,62 +3798,62 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection sqref="A1:D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" t="s">
+      <c r="A1" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="36" t="s">
         <v>78</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="36" t="s">
         <v>79</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="36" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>110</v>
-      </c>
-      <c r="B2">
-        <v>10</v>
-      </c>
-      <c r="C2">
-        <v>200</v>
-      </c>
-      <c r="D2">
-        <v>1000</v>
+      <c r="A2" s="38" t="s">
+        <v>123</v>
+      </c>
+      <c r="B2" s="39" t="s">
+        <v>137</v>
+      </c>
+      <c r="C2" s="39" t="s">
+        <v>138</v>
+      </c>
+      <c r="D2" s="39" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B3">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>200</v>
+      </c>
+      <c r="D3">
         <v>1000</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B4">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -3294,7 +3864,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="B5">
         <v>300</v>
@@ -3303,6 +3873,20 @@
         <v>0</v>
       </c>
       <c r="D5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>113</v>
+      </c>
+      <c r="B6">
+        <v>300</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
         <v>10</v>
       </c>
     </row>

--- a/tests/testdata/test_geometry_material_input.xlsx
+++ b/tests/testdata/test_geometry_material_input.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450"/>
   </bookViews>
   <sheets>
     <sheet name="Input_variables" sheetId="1" r:id="rId1"/>
@@ -1767,17 +1767,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:H5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="A11:XFD13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
     <col min="2" max="2" width="46" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.42578125" customWidth="1"/>
-    <col min="4" max="6" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.453125" customWidth="1"/>
+    <col min="4" max="6" width="19.453125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
-    <col min="8" max="8" width="17.140625" customWidth="1"/>
+    <col min="8" max="8" width="17.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -2022,486 +2022,486 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="40"/>
-      <c r="B11" t="s">
-        <v>93</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D11" s="2">
-        <v>100000</v>
-      </c>
-      <c r="E11" s="2">
-        <v>100000</v>
-      </c>
-      <c r="F11" s="2">
-        <v>100000</v>
-      </c>
-      <c r="G11" s="2">
-        <v>100000</v>
-      </c>
-      <c r="H11" s="2">
-        <v>100000</v>
+    <row r="11" spans="1:8" ht="15" customHeight="1">
+      <c r="A11" s="41" t="s">
+        <v>140</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11">
+        <v>24.9397924881983</v>
+      </c>
+      <c r="E11">
+        <v>29.846033506748501</v>
+      </c>
+      <c r="F11">
+        <v>21.549071913738601</v>
+      </c>
+      <c r="G11">
+        <v>30.724628045371599</v>
+      </c>
+      <c r="H11">
+        <v>24.603567265875999</v>
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="40"/>
-      <c r="B12" t="s">
-        <v>94</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="D12" s="2">
-        <v>500000</v>
-      </c>
-      <c r="E12" s="2">
-        <v>500000</v>
-      </c>
-      <c r="F12" s="2">
-        <v>800000</v>
-      </c>
-      <c r="G12" s="2">
-        <v>100000</v>
-      </c>
-      <c r="H12" s="2">
-        <v>200000</v>
+      <c r="A12" s="41"/>
+      <c r="B12" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12">
+        <v>0.397534327540081</v>
+      </c>
+      <c r="E12">
+        <v>0.38745672969163403</v>
+      </c>
+      <c r="F12">
+        <v>0.27778552720397198</v>
+      </c>
+      <c r="G12">
+        <v>0.38853068564494597</v>
+      </c>
+      <c r="H12">
+        <v>0.39281645770158102</v>
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="40"/>
+      <c r="A13" s="41"/>
       <c r="B13" t="s">
-        <v>95</v>
+        <v>41</v>
       </c>
       <c r="C13" t="s">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>310.53423258511901</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>311.82631932244198</v>
       </c>
       <c r="F13">
-        <v>4</v>
+        <v>262.54231664112598</v>
       </c>
       <c r="G13">
-        <v>1</v>
+        <v>334.01554867815503</v>
       </c>
       <c r="H13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="15" customHeight="1">
-      <c r="A14" s="41" t="s">
-        <v>140</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>37</v>
+        <v>217.83710715883799</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="41"/>
+      <c r="B14" t="s">
+        <v>43</v>
       </c>
       <c r="C14" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D14">
-        <v>24.9397924881983</v>
+        <v>0.43852951083798603</v>
       </c>
       <c r="E14">
-        <v>29.846033506748501</v>
+        <v>0.27896020164795099</v>
       </c>
       <c r="F14">
-        <v>21.549071913738601</v>
+        <v>0.41639127372561502</v>
       </c>
       <c r="G14">
-        <v>30.724628045371599</v>
+        <v>0.36908011038102101</v>
       </c>
       <c r="H14">
-        <v>24.603567265875999</v>
+        <v>0.33759378483001701</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="41"/>
-      <c r="B15" s="11" t="s">
-        <v>39</v>
+      <c r="B15" t="s">
+        <v>45</v>
       </c>
       <c r="C15" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D15">
-        <v>0.397534327540081</v>
+        <v>9592.8821295104699</v>
       </c>
       <c r="E15">
-        <v>0.38745672969163403</v>
+        <v>13728.6250951821</v>
       </c>
       <c r="F15">
-        <v>0.27778552720397198</v>
+        <v>9530.9428397424908</v>
       </c>
       <c r="G15">
-        <v>0.38853068564494597</v>
+        <v>11844.471056845599</v>
       </c>
       <c r="H15">
-        <v>0.39281645770158102</v>
+        <v>7039.1850549506698</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="41"/>
       <c r="B16" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C16" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="D16">
-        <v>310.53423258511901</v>
+        <v>6.9859353305379797</v>
       </c>
       <c r="E16">
-        <v>311.82631932244198</v>
+        <v>4.8667038063889603</v>
       </c>
       <c r="F16">
-        <v>262.54231664112598</v>
+        <v>5.9682746322479998</v>
       </c>
       <c r="G16">
-        <v>334.01554867815503</v>
+        <v>7.6920989582716999</v>
       </c>
       <c r="H16">
-        <v>217.83710715883799</v>
+        <v>7.9973902757422897</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="41"/>
       <c r="B17" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C17" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D17">
-        <v>0.43852951083798603</v>
+        <v>0.36032232455732299</v>
       </c>
       <c r="E17">
-        <v>0.27896020164795099</v>
+        <v>0.43263553136410199</v>
       </c>
       <c r="F17">
-        <v>0.41639127372561502</v>
+        <v>0.311870213321776</v>
       </c>
       <c r="G17">
-        <v>0.36908011038102101</v>
+        <v>0.34484796209278801</v>
       </c>
       <c r="H17">
-        <v>0.33759378483001701</v>
+        <v>0.43685550941856799</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="41"/>
       <c r="B18" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C18" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="D18">
-        <v>9592.8821295104699</v>
+        <v>235.360704664796</v>
       </c>
       <c r="E18">
-        <v>13728.6250951821</v>
+        <v>208.806759033595</v>
       </c>
       <c r="F18">
-        <v>9530.9428397424908</v>
+        <v>226.06765407211699</v>
       </c>
       <c r="G18">
-        <v>11844.471056845599</v>
+        <v>392.86734368371702</v>
       </c>
       <c r="H18">
-        <v>7039.1850549506698</v>
+        <v>391.55736926069602</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="41"/>
       <c r="B19" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C19" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D19">
-        <v>6.9859353305379797</v>
+        <v>3620.8448324163101</v>
       </c>
       <c r="E19">
-        <v>4.8667038063889603</v>
+        <v>2311.15858694705</v>
       </c>
       <c r="F19">
-        <v>5.9682746322479998</v>
+        <v>2343.2994179618399</v>
       </c>
       <c r="G19">
-        <v>7.6920989582716999</v>
+        <v>4284.9699230713404</v>
       </c>
       <c r="H19">
-        <v>7.9973902757422897</v>
+        <v>3659.2272904198899</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="41"/>
       <c r="B20" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="C20" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="D20">
-        <v>0.36032232455732299</v>
+        <v>1.13373577673032</v>
       </c>
       <c r="E20">
-        <v>0.43263553136410199</v>
+        <v>2.4258179969420199</v>
       </c>
       <c r="F20">
-        <v>0.311870213321776</v>
+        <v>2.3873285971102698</v>
       </c>
       <c r="G20">
-        <v>0.34484796209278801</v>
+        <v>1.4564750409017799</v>
       </c>
       <c r="H20">
-        <v>0.43685550941856799</v>
+        <v>0.99721191005946297</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="41"/>
       <c r="B21" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C21" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="D21">
-        <v>235.360704664796</v>
+        <v>0.67575877439752896</v>
       </c>
       <c r="E21">
-        <v>208.806759033595</v>
+        <v>0.51712000434017502</v>
       </c>
       <c r="F21">
-        <v>226.06765407211699</v>
+        <v>0.801477721483979</v>
       </c>
       <c r="G21">
-        <v>392.86734368371702</v>
+        <v>9.8010774605840997E-2</v>
       </c>
       <c r="H21">
-        <v>391.55736926069602</v>
+        <v>0.74159415955053198</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="41"/>
       <c r="B22" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="C22" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="D22">
-        <v>3620.8448324163101</v>
+        <v>3.8387980542432998</v>
       </c>
       <c r="E22">
-        <v>2311.15858694705</v>
+        <v>1.8776339003870799</v>
       </c>
       <c r="F22">
-        <v>2343.2994179618399</v>
+        <v>3.3657208787845398</v>
       </c>
       <c r="G22">
-        <v>4284.9699230713404</v>
+        <v>2.4178541756165899</v>
       </c>
       <c r="H22">
-        <v>3659.2272904198899</v>
+        <v>1.56466211459187</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="41"/>
       <c r="B23" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C23" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="D23">
-        <v>1.13373577673032</v>
+        <v>0.82317441160238602</v>
       </c>
       <c r="E23">
-        <v>2.4258179969420199</v>
+        <v>0.63680145228157503</v>
       </c>
       <c r="F23">
-        <v>2.3873285971102698</v>
+        <v>0.85382760203728802</v>
       </c>
       <c r="G23">
-        <v>1.4564750409017799</v>
+        <v>0.594424181188418</v>
       </c>
       <c r="H23">
-        <v>0.99721191005946297</v>
+        <v>0.58201942471427504</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="41"/>
       <c r="B24" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="C24" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="D24">
-        <v>0.67575877439752896</v>
+        <v>2351.0358557609202</v>
       </c>
       <c r="E24">
-        <v>0.51712000434017502</v>
+        <v>4305.6905785423696</v>
       </c>
       <c r="F24">
-        <v>0.801477721483979</v>
+        <v>5592.7916508867802</v>
       </c>
       <c r="G24">
-        <v>9.8010774605840997E-2</v>
+        <v>1093.0004954073299</v>
       </c>
       <c r="H24">
-        <v>0.74159415955053198</v>
+        <v>5316.4232733114604</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="41"/>
       <c r="B25" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C25" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="D25">
-        <v>3.8387980542432998</v>
+        <v>479.56427978543297</v>
       </c>
       <c r="E25">
-        <v>1.8776339003870799</v>
+        <v>342.07526272382</v>
       </c>
       <c r="F25">
-        <v>3.3657208787845398</v>
+        <v>629.09549703360005</v>
       </c>
       <c r="G25">
-        <v>2.4178541756165899</v>
+        <v>1336.8970567521501</v>
       </c>
       <c r="H25">
-        <v>1.56466211459187</v>
+        <v>1431.3338377950799</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="41"/>
       <c r="B26" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C26" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="D26">
-        <v>0.82317441160238602</v>
+        <v>1.5209241133552001</v>
       </c>
       <c r="E26">
-        <v>0.63680145228157503</v>
+        <v>1.4611356146706</v>
       </c>
       <c r="F26">
-        <v>0.85382760203728802</v>
+        <v>1.17459338972312</v>
       </c>
       <c r="G26">
-        <v>0.594424181188418</v>
+        <v>1.17980028181748</v>
       </c>
       <c r="H26">
-        <v>0.58201942471427504</v>
+        <v>0.97421919684422997</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="41"/>
       <c r="B27" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C27" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="D27">
-        <v>2351.0358557609202</v>
+        <v>148.023377589456</v>
       </c>
       <c r="E27">
-        <v>4305.6905785423696</v>
+        <v>196.39317107510001</v>
       </c>
       <c r="F27">
-        <v>5592.7916508867802</v>
+        <v>170.37252984731199</v>
       </c>
       <c r="G27">
-        <v>1093.0004954073299</v>
+        <v>285.26395874702098</v>
       </c>
       <c r="H27">
-        <v>5316.4232733114604</v>
+        <v>203.71546054260199</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="41"/>
       <c r="B28" t="s">
-        <v>65</v>
-      </c>
-      <c r="C28" t="s">
-        <v>66</v>
-      </c>
-      <c r="D28">
-        <v>479.56427978543297</v>
-      </c>
-      <c r="E28">
-        <v>342.07526272382</v>
-      </c>
-      <c r="F28">
-        <v>629.09549703360005</v>
-      </c>
-      <c r="G28">
-        <v>1336.8970567521501</v>
-      </c>
-      <c r="H28">
-        <v>1431.3338377950799</v>
+        <v>93</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D28" s="2">
+        <v>100000</v>
+      </c>
+      <c r="E28" s="2">
+        <v>100000</v>
+      </c>
+      <c r="F28" s="2">
+        <v>100000</v>
+      </c>
+      <c r="G28" s="2">
+        <v>100000</v>
+      </c>
+      <c r="H28" s="2">
+        <v>100000</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="41"/>
       <c r="B29" t="s">
-        <v>67</v>
-      </c>
-      <c r="C29" t="s">
-        <v>68</v>
-      </c>
-      <c r="D29">
-        <v>1.5209241133552001</v>
-      </c>
-      <c r="E29">
-        <v>1.4611356146706</v>
-      </c>
-      <c r="F29">
-        <v>1.17459338972312</v>
-      </c>
-      <c r="G29">
-        <v>1.17980028181748</v>
-      </c>
-      <c r="H29">
-        <v>0.97421919684422997</v>
+        <v>94</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D29" s="2">
+        <v>500000</v>
+      </c>
+      <c r="E29" s="2">
+        <v>500000</v>
+      </c>
+      <c r="F29" s="2">
+        <v>800000</v>
+      </c>
+      <c r="G29" s="2">
+        <v>100000</v>
+      </c>
+      <c r="H29" s="2">
+        <v>200000</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="41"/>
       <c r="B30" t="s">
-        <v>69</v>
+        <v>95</v>
       </c>
       <c r="C30" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="D30">
-        <v>148.023377589456</v>
+        <v>1</v>
       </c>
       <c r="E30">
-        <v>196.39317107510001</v>
+        <v>2</v>
       </c>
       <c r="F30">
-        <v>170.37252984731199</v>
+        <v>4</v>
       </c>
       <c r="G30">
-        <v>285.26395874702098</v>
+        <v>1</v>
       </c>
       <c r="H30">
-        <v>203.71546054260199</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2744,7 +2744,7 @@
         <v>0.94103602888102855</v>
       </c>
       <c r="G40">
-        <f t="shared" ref="G40" si="0">(0.005/G3)^(1/3)</f>
+        <f>(0.005/G3)^(1/3)</f>
         <v>0.94103602888102855</v>
       </c>
       <c r="H40">
@@ -3006,29 +3006,29 @@
         <v>192093.02325581395</v>
       </c>
       <c r="E51">
-        <f t="shared" ref="E51:H51" si="1">(2*E43*E44)/(E43+E44)</f>
+        <f t="shared" ref="E51:H51" si="0">(2*E43*E44)/(E43+E44)</f>
         <v>210000</v>
       </c>
       <c r="F51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>210000</v>
       </c>
       <c r="G51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>210000</v>
       </c>
       <c r="H51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>210000</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A1:A13"/>
-    <mergeCell ref="A14:A30"/>
+    <mergeCell ref="A1:A10"/>
     <mergeCell ref="A31:A33"/>
     <mergeCell ref="A34:A40"/>
     <mergeCell ref="A41:A51"/>
+    <mergeCell ref="A11:A30"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Note" prompt="If the desired material does not figrue on the list, please add it as well as its following parameters to the list in the worksheet &quot;rail and wheel materials&quot;" sqref="D8:H8"/>
@@ -3046,15 +3046,15 @@
       <selection activeCell="I9" sqref="A1:I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" customWidth="1"/>
+    <col min="1" max="1" width="18.453125" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" customWidth="1"/>
-    <col min="5" max="6" width="11.42578125" customWidth="1"/>
-    <col min="7" max="7" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="32.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" customWidth="1"/>
+    <col min="4" max="4" width="11.7265625" customWidth="1"/>
+    <col min="5" max="6" width="11.453125" customWidth="1"/>
+    <col min="7" max="7" width="26.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="14.25" customHeight="1">
@@ -3086,7 +3086,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="120">
+    <row r="2" spans="1:9" ht="98">
       <c r="A2" s="25" t="s">
         <v>123</v>
       </c>
@@ -3333,19 +3333,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -3377,7 +3377,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="75">
+    <row r="2" spans="1:9" ht="70">
       <c r="A2" s="25" t="s">
         <v>123</v>
       </c>
@@ -3684,7 +3684,7 @@
       <selection sqref="A1:E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="35" t="s">
@@ -3804,7 +3804,7 @@
       <selection sqref="A1:D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="35" t="s">

--- a/tests/testdata/test_geometry_material_input.xlsx
+++ b/tests/testdata/test_geometry_material_input.xlsx
@@ -139,7 +139,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="177">
   <si>
     <t>f_y</t>
   </si>
@@ -661,6 +661,18 @@
   </si>
   <si>
     <t xml:space="preserve">l </t>
+  </si>
+  <si>
+    <t>Bemessungskontaktkraft-Rad_s</t>
+  </si>
+  <si>
+    <t>Bemessungskontaktkraft-Schiene_s</t>
+  </si>
+  <si>
+    <t>F_sd_s_w</t>
+  </si>
+  <si>
+    <t>F_sd_s_r</t>
   </si>
 </sst>
 </file>
@@ -898,7 +910,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1017,13 +1029,16 @@
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1765,10 +1780,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H51"/>
+  <dimension ref="A1:H53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="A11:XFD13"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
@@ -1887,7 +1902,7 @@
         <v>111</v>
       </c>
       <c r="D5">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="E5">
         <v>450</v>
@@ -2022,1013 +2037,1061 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15" customHeight="1">
-      <c r="A11" s="41" t="s">
+    <row r="11" spans="1:8">
+      <c r="A11" s="40"/>
+      <c r="B11" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E11" s="2">
+        <v>1000</v>
+      </c>
+      <c r="F11" s="2">
+        <v>1000</v>
+      </c>
+      <c r="G11" s="2">
+        <v>1000</v>
+      </c>
+      <c r="H11" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="40"/>
+      <c r="B12" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="D12" s="44">
+        <v>2000</v>
+      </c>
+      <c r="E12" s="44">
+        <v>2000</v>
+      </c>
+      <c r="F12" s="44">
+        <v>2000</v>
+      </c>
+      <c r="G12" s="44">
+        <v>2000</v>
+      </c>
+      <c r="H12" s="44">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15" customHeight="1">
+      <c r="A13" s="43" t="s">
         <v>140</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B13" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C13" t="s">
         <v>38</v>
       </c>
-      <c r="D11">
+      <c r="D13">
         <v>24.9397924881983</v>
       </c>
-      <c r="E11">
+      <c r="E13">
         <v>29.846033506748501</v>
       </c>
-      <c r="F11">
+      <c r="F13">
         <v>21.549071913738601</v>
       </c>
-      <c r="G11">
+      <c r="G13">
         <v>30.724628045371599</v>
       </c>
-      <c r="H11">
+      <c r="H13">
         <v>24.603567265875999</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="41"/>
-      <c r="B12" s="11" t="s">
+    <row r="14" spans="1:8">
+      <c r="A14" s="43"/>
+      <c r="B14" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C14" t="s">
         <v>40</v>
       </c>
-      <c r="D12">
+      <c r="D14">
         <v>0.397534327540081</v>
       </c>
-      <c r="E12">
+      <c r="E14">
         <v>0.38745672969163403</v>
       </c>
-      <c r="F12">
+      <c r="F14">
         <v>0.27778552720397198</v>
       </c>
-      <c r="G12">
+      <c r="G14">
         <v>0.38853068564494597</v>
       </c>
-      <c r="H12">
+      <c r="H14">
         <v>0.39281645770158102</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="41"/>
-      <c r="B13" t="s">
+    <row r="15" spans="1:8">
+      <c r="A15" s="43"/>
+      <c r="B15" t="s">
         <v>41</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C15" t="s">
         <v>42</v>
       </c>
-      <c r="D13">
+      <c r="D15">
         <v>310.53423258511901</v>
       </c>
-      <c r="E13">
+      <c r="E15">
         <v>311.82631932244198</v>
       </c>
-      <c r="F13">
+      <c r="F15">
         <v>262.54231664112598</v>
       </c>
-      <c r="G13">
+      <c r="G15">
         <v>334.01554867815503</v>
       </c>
-      <c r="H13">
+      <c r="H15">
         <v>217.83710715883799</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="41"/>
-      <c r="B14" t="s">
+    <row r="16" spans="1:8">
+      <c r="A16" s="43"/>
+      <c r="B16" t="s">
         <v>43</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C16" t="s">
         <v>44</v>
       </c>
-      <c r="D14">
+      <c r="D16">
         <v>0.43852951083798603</v>
       </c>
-      <c r="E14">
+      <c r="E16">
         <v>0.27896020164795099</v>
       </c>
-      <c r="F14">
+      <c r="F16">
         <v>0.41639127372561502</v>
       </c>
-      <c r="G14">
+      <c r="G16">
         <v>0.36908011038102101</v>
       </c>
-      <c r="H14">
+      <c r="H16">
         <v>0.33759378483001701</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="41"/>
-      <c r="B15" t="s">
+    <row r="17" spans="1:8">
+      <c r="A17" s="43"/>
+      <c r="B17" t="s">
         <v>45</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C17" t="s">
         <v>46</v>
       </c>
-      <c r="D15">
+      <c r="D17">
         <v>9592.8821295104699</v>
       </c>
-      <c r="E15">
+      <c r="E17">
         <v>13728.6250951821</v>
       </c>
-      <c r="F15">
+      <c r="F17">
         <v>9530.9428397424908</v>
       </c>
-      <c r="G15">
+      <c r="G17">
         <v>11844.471056845599</v>
       </c>
-      <c r="H15">
+      <c r="H17">
         <v>7039.1850549506698</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="41"/>
-      <c r="B16" t="s">
+    <row r="18" spans="1:8">
+      <c r="A18" s="43"/>
+      <c r="B18" t="s">
         <v>47</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C18" t="s">
         <v>48</v>
       </c>
-      <c r="D16">
+      <c r="D18">
         <v>6.9859353305379797</v>
       </c>
-      <c r="E16">
+      <c r="E18">
         <v>4.8667038063889603</v>
       </c>
-      <c r="F16">
+      <c r="F18">
         <v>5.9682746322479998</v>
       </c>
-      <c r="G16">
+      <c r="G18">
         <v>7.6920989582716999</v>
       </c>
-      <c r="H16">
+      <c r="H18">
         <v>7.9973902757422897</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="41"/>
-      <c r="B17" t="s">
+    <row r="19" spans="1:8">
+      <c r="A19" s="43"/>
+      <c r="B19" t="s">
         <v>49</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C19" t="s">
         <v>50</v>
       </c>
-      <c r="D17">
+      <c r="D19">
         <v>0.36032232455732299</v>
       </c>
-      <c r="E17">
+      <c r="E19">
         <v>0.43263553136410199</v>
       </c>
-      <c r="F17">
+      <c r="F19">
         <v>0.311870213321776</v>
       </c>
-      <c r="G17">
+      <c r="G19">
         <v>0.34484796209278801</v>
       </c>
-      <c r="H17">
+      <c r="H19">
         <v>0.43685550941856799</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="41"/>
-      <c r="B18" t="s">
+    <row r="20" spans="1:8">
+      <c r="A20" s="43"/>
+      <c r="B20" t="s">
         <v>51</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C20" t="s">
         <v>52</v>
       </c>
-      <c r="D18">
+      <c r="D20">
         <v>235.360704664796</v>
       </c>
-      <c r="E18">
+      <c r="E20">
         <v>208.806759033595</v>
       </c>
-      <c r="F18">
+      <c r="F20">
         <v>226.06765407211699</v>
       </c>
-      <c r="G18">
+      <c r="G20">
         <v>392.86734368371702</v>
       </c>
-      <c r="H18">
+      <c r="H20">
         <v>391.55736926069602</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="41"/>
-      <c r="B19" t="s">
+    <row r="21" spans="1:8">
+      <c r="A21" s="43"/>
+      <c r="B21" t="s">
         <v>53</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C21" t="s">
         <v>54</v>
       </c>
-      <c r="D19">
+      <c r="D21">
         <v>3620.8448324163101</v>
       </c>
-      <c r="E19">
+      <c r="E21">
         <v>2311.15858694705</v>
       </c>
-      <c r="F19">
+      <c r="F21">
         <v>2343.2994179618399</v>
       </c>
-      <c r="G19">
+      <c r="G21">
         <v>4284.9699230713404</v>
       </c>
-      <c r="H19">
+      <c r="H21">
         <v>3659.2272904198899</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="41"/>
-      <c r="B20" t="s">
+    <row r="22" spans="1:8">
+      <c r="A22" s="43"/>
+      <c r="B22" t="s">
         <v>55</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C22" t="s">
         <v>56</v>
       </c>
-      <c r="D20">
+      <c r="D22">
         <v>1.13373577673032</v>
       </c>
-      <c r="E20">
+      <c r="E22">
         <v>2.4258179969420199</v>
       </c>
-      <c r="F20">
+      <c r="F22">
         <v>2.3873285971102698</v>
       </c>
-      <c r="G20">
+      <c r="G22">
         <v>1.4564750409017799</v>
       </c>
-      <c r="H20">
+      <c r="H22">
         <v>0.99721191005946297</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="41"/>
-      <c r="B21" t="s">
+    <row r="23" spans="1:8">
+      <c r="A23" s="43"/>
+      <c r="B23" t="s">
         <v>57</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C23" t="s">
         <v>58</v>
       </c>
-      <c r="D21">
+      <c r="D23">
         <v>0.67575877439752896</v>
       </c>
-      <c r="E21">
+      <c r="E23">
         <v>0.51712000434017502</v>
       </c>
-      <c r="F21">
+      <c r="F23">
         <v>0.801477721483979</v>
       </c>
-      <c r="G21">
+      <c r="G23">
         <v>9.8010774605840997E-2</v>
       </c>
-      <c r="H21">
+      <c r="H23">
         <v>0.74159415955053198</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="41"/>
-      <c r="B22" t="s">
+    <row r="24" spans="1:8">
+      <c r="A24" s="43"/>
+      <c r="B24" t="s">
         <v>59</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C24" t="s">
         <v>60</v>
       </c>
-      <c r="D22">
+      <c r="D24">
         <v>3.8387980542432998</v>
       </c>
-      <c r="E22">
+      <c r="E24">
         <v>1.8776339003870799</v>
       </c>
-      <c r="F22">
+      <c r="F24">
         <v>3.3657208787845398</v>
       </c>
-      <c r="G22">
+      <c r="G24">
         <v>2.4178541756165899</v>
       </c>
-      <c r="H22">
+      <c r="H24">
         <v>1.56466211459187</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="41"/>
-      <c r="B23" t="s">
+    <row r="25" spans="1:8">
+      <c r="A25" s="43"/>
+      <c r="B25" t="s">
         <v>61</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C25" t="s">
         <v>62</v>
       </c>
-      <c r="D23">
+      <c r="D25">
         <v>0.82317441160238602</v>
       </c>
-      <c r="E23">
+      <c r="E25">
         <v>0.63680145228157503</v>
       </c>
-      <c r="F23">
+      <c r="F25">
         <v>0.85382760203728802</v>
       </c>
-      <c r="G23">
+      <c r="G25">
         <v>0.594424181188418</v>
       </c>
-      <c r="H23">
+      <c r="H25">
         <v>0.58201942471427504</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="41"/>
-      <c r="B24" t="s">
+    <row r="26" spans="1:8">
+      <c r="A26" s="43"/>
+      <c r="B26" t="s">
         <v>63</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C26" t="s">
         <v>64</v>
       </c>
-      <c r="D24">
+      <c r="D26">
         <v>2351.0358557609202</v>
       </c>
-      <c r="E24">
+      <c r="E26">
         <v>4305.6905785423696</v>
       </c>
-      <c r="F24">
+      <c r="F26">
         <v>5592.7916508867802</v>
       </c>
-      <c r="G24">
+      <c r="G26">
         <v>1093.0004954073299</v>
       </c>
-      <c r="H24">
+      <c r="H26">
         <v>5316.4232733114604</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="41"/>
-      <c r="B25" t="s">
+    <row r="27" spans="1:8">
+      <c r="A27" s="43"/>
+      <c r="B27" t="s">
         <v>65</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C27" t="s">
         <v>66</v>
       </c>
-      <c r="D25">
+      <c r="D27">
         <v>479.56427978543297</v>
       </c>
-      <c r="E25">
+      <c r="E27">
         <v>342.07526272382</v>
       </c>
-      <c r="F25">
+      <c r="F27">
         <v>629.09549703360005</v>
       </c>
-      <c r="G25">
+      <c r="G27">
         <v>1336.8970567521501</v>
       </c>
-      <c r="H25">
+      <c r="H27">
         <v>1431.3338377950799</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="41"/>
-      <c r="B26" t="s">
+    <row r="28" spans="1:8">
+      <c r="A28" s="43"/>
+      <c r="B28" t="s">
         <v>67</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C28" t="s">
         <v>68</v>
       </c>
-      <c r="D26">
+      <c r="D28">
         <v>1.5209241133552001</v>
       </c>
-      <c r="E26">
+      <c r="E28">
         <v>1.4611356146706</v>
       </c>
-      <c r="F26">
+      <c r="F28">
         <v>1.17459338972312</v>
       </c>
-      <c r="G26">
+      <c r="G28">
         <v>1.17980028181748</v>
       </c>
-      <c r="H26">
+      <c r="H28">
         <v>0.97421919684422997</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="41"/>
-      <c r="B27" t="s">
+    <row r="29" spans="1:8">
+      <c r="A29" s="43"/>
+      <c r="B29" t="s">
         <v>69</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C29" t="s">
         <v>70</v>
       </c>
-      <c r="D27">
+      <c r="D29">
         <v>148.023377589456</v>
       </c>
-      <c r="E27">
+      <c r="E29">
         <v>196.39317107510001</v>
       </c>
-      <c r="F27">
+      <c r="F29">
         <v>170.37252984731199</v>
       </c>
-      <c r="G27">
+      <c r="G29">
         <v>285.26395874702098</v>
       </c>
-      <c r="H27">
+      <c r="H29">
         <v>203.71546054260199</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="41"/>
-      <c r="B28" t="s">
+    <row r="30" spans="1:8">
+      <c r="A30" s="43"/>
+      <c r="B30" t="s">
         <v>93</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C30" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="D28" s="2">
+      <c r="D30" s="2">
         <v>100000</v>
       </c>
-      <c r="E28" s="2">
+      <c r="E30" s="2">
         <v>100000</v>
       </c>
-      <c r="F28" s="2">
+      <c r="F30" s="2">
         <v>100000</v>
       </c>
-      <c r="G28" s="2">
+      <c r="G30" s="2">
         <v>100000</v>
       </c>
-      <c r="H28" s="2">
+      <c r="H30" s="2">
         <v>100000</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="41"/>
-      <c r="B29" t="s">
+    <row r="31" spans="1:8">
+      <c r="A31" s="43"/>
+      <c r="B31" t="s">
         <v>94</v>
       </c>
-      <c r="C29" s="16" t="s">
+      <c r="C31" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="D29" s="2">
+      <c r="D31" s="2">
         <v>500000</v>
       </c>
-      <c r="E29" s="2">
+      <c r="E31" s="2">
         <v>500000</v>
       </c>
-      <c r="F29" s="2">
+      <c r="F31" s="2">
         <v>800000</v>
       </c>
-      <c r="G29" s="2">
+      <c r="G31" s="2">
         <v>100000</v>
       </c>
-      <c r="H29" s="2">
+      <c r="H31" s="2">
         <v>200000</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="41"/>
-      <c r="B30" t="s">
+    <row r="32" spans="1:8">
+      <c r="A32" s="43"/>
+      <c r="B32" t="s">
         <v>95</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C32" t="s">
         <v>84</v>
       </c>
-      <c r="D30">
+      <c r="D32">
         <v>1</v>
       </c>
-      <c r="E30">
+      <c r="E32">
         <v>2</v>
       </c>
-      <c r="F30">
+      <c r="F32">
         <v>4</v>
       </c>
-      <c r="G30">
+      <c r="G32">
         <v>1</v>
       </c>
-      <c r="H30">
+      <c r="H32">
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="42" t="s">
+    <row r="33" spans="1:8">
+      <c r="A33" s="41" t="s">
         <v>103</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B33" t="s">
         <v>100</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C33" t="s">
         <v>152</v>
       </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="F31">
-        <v>0</v>
-      </c>
-      <c r="G31">
-        <v>0</v>
-      </c>
-      <c r="H31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="42"/>
-      <c r="B32" t="s">
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="41"/>
+      <c r="B34" t="s">
         <v>78</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C34" t="s">
         <v>153</v>
       </c>
-      <c r="D32">
-        <v>0</v>
-      </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-      <c r="F32">
-        <v>0</v>
-      </c>
-      <c r="G32">
-        <v>0</v>
-      </c>
-      <c r="H32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="42"/>
-      <c r="B33" t="s">
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="41"/>
+      <c r="B35" t="s">
         <v>101</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C35" t="s">
         <v>101</v>
       </c>
-      <c r="D33">
-        <v>0</v>
-      </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
-      <c r="F33">
-        <v>0</v>
-      </c>
-      <c r="G33">
-        <v>0</v>
-      </c>
-      <c r="H33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="A34" s="43" t="s">
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="42" t="s">
         <v>116</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B36" t="s">
         <v>118</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C36" t="s">
         <v>154</v>
       </c>
-      <c r="D34">
+      <c r="D36">
         <v>10</v>
       </c>
-      <c r="E34">
+      <c r="E36">
         <v>100</v>
       </c>
-      <c r="F34">
+      <c r="F36">
         <v>100</v>
       </c>
-      <c r="G34">
+      <c r="G36">
         <v>100</v>
       </c>
-      <c r="H34">
+      <c r="H36">
         <v>100</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
-      <c r="A35" s="43"/>
-      <c r="B35" t="s">
+    <row r="37" spans="1:8">
+      <c r="A37" s="42"/>
+      <c r="B37" t="s">
         <v>119</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C37" t="s">
         <v>155</v>
       </c>
-      <c r="D35">
+      <c r="D37">
         <v>30</v>
       </c>
-      <c r="E35">
+      <c r="E37">
         <v>450</v>
       </c>
-      <c r="F35">
+      <c r="F37">
         <v>100</v>
       </c>
-      <c r="G35">
+      <c r="G37">
         <v>100</v>
       </c>
-      <c r="H35">
+      <c r="H37">
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
-      <c r="A36" s="43"/>
-      <c r="B36" t="s">
+    <row r="38" spans="1:8">
+      <c r="A38" s="42"/>
+      <c r="B38" t="s">
         <v>120</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C38" t="s">
         <v>156</v>
       </c>
-      <c r="D36">
+      <c r="D38">
         <v>200</v>
       </c>
-      <c r="E36">
+      <c r="E38">
         <v>30000</v>
       </c>
-      <c r="F36">
-        <v>0</v>
-      </c>
-      <c r="G36">
-        <v>0</v>
-      </c>
-      <c r="H36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="A37" s="43"/>
-      <c r="B37" t="s">
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="42"/>
+      <c r="B39" t="s">
         <v>121</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C39" t="s">
         <v>157</v>
       </c>
-      <c r="D37">
+      <c r="D39">
         <v>1000</v>
       </c>
-      <c r="E37">
+      <c r="E39">
         <v>360</v>
       </c>
-      <c r="F37">
+      <c r="F39">
         <v>10</v>
       </c>
-      <c r="G37">
+      <c r="G39">
         <v>11</v>
       </c>
-      <c r="H37">
+      <c r="H39">
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
-      <c r="A38" s="43"/>
-      <c r="B38" t="s">
+    <row r="40" spans="1:8">
+      <c r="A40" s="42"/>
+      <c r="B40" t="s">
         <v>122</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C40" t="s">
         <v>158</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D40" t="s">
         <v>114</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E40" t="s">
         <v>115</v>
       </c>
-      <c r="F38" t="s">
+      <c r="F40" t="s">
         <v>115</v>
       </c>
-      <c r="G38" t="s">
+      <c r="G40" t="s">
         <v>115</v>
       </c>
-      <c r="H38" t="s">
+      <c r="H40" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
-      <c r="A39" s="43"/>
-      <c r="B39" t="s">
+    <row r="41" spans="1:8">
+      <c r="A41" s="42"/>
+      <c r="B41" t="s">
         <v>141</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C41" t="s">
         <v>159</v>
       </c>
-      <c r="D39">
+      <c r="D41">
         <v>1</v>
       </c>
-      <c r="E39">
+      <c r="E41">
         <v>1</v>
       </c>
-      <c r="F39">
+      <c r="F41">
         <v>0.85</v>
       </c>
-      <c r="G39">
-        <f>(0.58+0.15*(G37/G35))/0.7</f>
+      <c r="G41">
+        <f>(0.58+0.15*(G39/G37))/0.7</f>
         <v>0.85214285714285709</v>
       </c>
-      <c r="H39">
+      <c r="H41">
         <v>0.85</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
-      <c r="A40" s="43"/>
-      <c r="B40" t="s">
+    <row r="42" spans="1:8">
+      <c r="A42" s="42"/>
+      <c r="B42" t="s">
         <v>142</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C42" t="s">
         <v>160</v>
       </c>
-      <c r="D40">
+      <c r="D42">
         <v>1</v>
       </c>
-      <c r="E40">
+      <c r="E42">
         <v>1</v>
       </c>
-      <c r="F40">
+      <c r="F42">
         <f>(0.005/F3)^(1/3)</f>
         <v>0.94103602888102855</v>
       </c>
-      <c r="G40">
+      <c r="G42">
         <f>(0.005/G3)^(1/3)</f>
         <v>0.94103602888102855</v>
       </c>
-      <c r="H40">
+      <c r="H42">
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
-      <c r="A41" s="43" t="s">
+    <row r="43" spans="1:8">
+      <c r="A43" s="42" t="s">
         <v>117</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B43" t="s">
         <v>143</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C43" t="s">
         <v>161</v>
       </c>
-      <c r="D41">
+      <c r="D43">
         <v>0.3</v>
       </c>
-      <c r="E41">
+      <c r="E43">
         <v>0.3</v>
       </c>
-      <c r="F41">
+      <c r="F43">
         <v>0.3</v>
       </c>
-      <c r="G41">
+      <c r="G43">
         <v>0.3</v>
       </c>
-      <c r="H41">
+      <c r="H43">
         <v>0.3</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
-      <c r="A42" s="43"/>
-      <c r="B42" t="s">
+    <row r="44" spans="1:8">
+      <c r="A44" s="42"/>
+      <c r="B44" t="s">
         <v>172</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C44" t="s">
         <v>162</v>
       </c>
-      <c r="D42">
+      <c r="D44">
         <v>0.2</v>
       </c>
-      <c r="E42">
+      <c r="E44">
         <v>0.2</v>
       </c>
-      <c r="F42">
+      <c r="F44">
         <v>0.2</v>
       </c>
-      <c r="G42">
+      <c r="G44">
         <v>0.2</v>
       </c>
-      <c r="H42">
+      <c r="H44">
         <v>0.2</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
-      <c r="A43" s="43"/>
-      <c r="B43" t="s">
+    <row r="45" spans="1:8">
+      <c r="A45" s="42"/>
+      <c r="B45" t="s">
         <v>144</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C45" t="s">
         <v>163</v>
       </c>
-      <c r="D43">
+      <c r="D45">
         <v>210000</v>
       </c>
-      <c r="E43">
+      <c r="E45">
         <v>210000</v>
       </c>
-      <c r="F43">
+      <c r="F45">
         <v>210000</v>
       </c>
-      <c r="G43">
+      <c r="G45">
         <v>210000</v>
       </c>
-      <c r="H43">
+      <c r="H45">
         <v>210000</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
-      <c r="A44" s="43"/>
-      <c r="B44" t="s">
+    <row r="46" spans="1:8">
+      <c r="A46" s="42"/>
+      <c r="B46" t="s">
         <v>145</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C46" t="s">
         <v>164</v>
       </c>
-      <c r="D44">
+      <c r="D46">
         <v>177000</v>
       </c>
-      <c r="E44">
+      <c r="E46">
         <v>210000</v>
       </c>
-      <c r="F44">
+      <c r="F46">
         <v>210000</v>
       </c>
-      <c r="G44">
+      <c r="G46">
         <v>210000</v>
       </c>
-      <c r="H44">
+      <c r="H46">
         <v>210000</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
-      <c r="A45" s="43"/>
-      <c r="B45" t="s">
+    <row r="47" spans="1:8">
+      <c r="A47" s="42"/>
+      <c r="B47" t="s">
         <v>146</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C47" t="s">
         <v>165</v>
       </c>
-      <c r="D45">
-        <v>0</v>
-      </c>
-      <c r="E45">
-        <v>0</v>
-      </c>
-      <c r="F45">
-        <v>0</v>
-      </c>
-      <c r="G45">
-        <v>0</v>
-      </c>
-      <c r="H45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
-      <c r="A46" s="43"/>
-      <c r="B46" t="s">
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="42"/>
+      <c r="B48" t="s">
         <v>147</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C48" t="s">
         <v>166</v>
       </c>
-      <c r="D46">
-        <v>0</v>
-      </c>
-      <c r="E46">
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
         <v>10</v>
       </c>
-      <c r="F46">
+      <c r="F48">
         <v>10</v>
       </c>
-      <c r="G46">
+      <c r="G48">
         <v>10</v>
       </c>
-      <c r="H46">
+      <c r="H48">
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
-      <c r="A47" s="43"/>
-      <c r="B47" t="s">
+    <row r="49" spans="1:8">
+      <c r="A49" s="42"/>
+      <c r="B49" t="s">
         <v>148</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C49" t="s">
         <v>167</v>
       </c>
-      <c r="D47">
+      <c r="D49">
         <v>760</v>
       </c>
-      <c r="E47">
+      <c r="E49">
         <v>360</v>
       </c>
-      <c r="F47">
+      <c r="F49">
         <v>360</v>
       </c>
-      <c r="G47">
+      <c r="G49">
         <v>360</v>
       </c>
-      <c r="H47">
+      <c r="H49">
         <v>360</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
-      <c r="A48" s="43"/>
-      <c r="B48" t="s">
+    <row r="50" spans="1:8">
+      <c r="A50" s="42"/>
+      <c r="B50" t="s">
         <v>149</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C50" t="s">
         <v>168</v>
       </c>
-      <c r="D48">
+      <c r="D50">
         <v>600</v>
       </c>
-      <c r="E48">
+      <c r="E50">
         <v>420</v>
       </c>
-      <c r="F48">
+      <c r="F50">
         <v>420</v>
       </c>
-      <c r="G48">
+      <c r="G50">
         <v>420</v>
       </c>
-      <c r="H48">
+      <c r="H50">
         <v>420</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
-      <c r="A49" s="43"/>
-      <c r="B49" t="s">
+    <row r="51" spans="1:8">
+      <c r="A51" s="42"/>
+      <c r="B51" t="s">
         <v>102</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C51" t="s">
         <v>169</v>
       </c>
-      <c r="D49">
+      <c r="D51">
         <v>225</v>
       </c>
-      <c r="E49">
+      <c r="E51">
         <v>125</v>
       </c>
-      <c r="F49">
+      <c r="F51">
         <v>125</v>
       </c>
-      <c r="G49">
+      <c r="G51">
         <v>125</v>
       </c>
-      <c r="H49">
+      <c r="H51">
         <v>125</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
-      <c r="A50" s="43"/>
-      <c r="B50" t="s">
+    <row r="52" spans="1:8">
+      <c r="A52" s="42"/>
+      <c r="B52" t="s">
         <v>150</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C52" t="s">
         <v>170</v>
       </c>
-      <c r="D50">
+      <c r="D52">
         <v>210</v>
       </c>
-      <c r="E50">
+      <c r="E52">
         <v>255</v>
       </c>
-      <c r="F50">
+      <c r="F52">
         <v>255</v>
       </c>
-      <c r="G50">
+      <c r="G52">
         <v>255</v>
       </c>
-      <c r="H50">
+      <c r="H52">
         <v>255</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
-      <c r="A51" s="43"/>
-      <c r="B51" t="s">
+    <row r="53" spans="1:8">
+      <c r="A53" s="42"/>
+      <c r="B53" t="s">
         <v>151</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C53" t="s">
         <v>171</v>
       </c>
-      <c r="D51">
-        <f>(2*D43*D44)/(D43+D44)</f>
+      <c r="D53">
+        <f>(2*D45*D46)/(D45+D46)</f>
         <v>192093.02325581395</v>
       </c>
-      <c r="E51">
-        <f t="shared" ref="E51:H51" si="0">(2*E43*E44)/(E43+E44)</f>
+      <c r="E53">
+        <f t="shared" ref="E53:H53" si="0">(2*E45*E46)/(E45+E46)</f>
         <v>210000</v>
       </c>
-      <c r="F51">
+      <c r="F53">
         <f t="shared" si="0"/>
         <v>210000</v>
       </c>
-      <c r="G51">
+      <c r="G53">
         <f t="shared" si="0"/>
         <v>210000</v>
       </c>
-      <c r="H51">
+      <c r="H53">
         <f t="shared" si="0"/>
         <v>210000</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A1:A10"/>
-    <mergeCell ref="A31:A33"/>
-    <mergeCell ref="A34:A40"/>
-    <mergeCell ref="A41:A51"/>
-    <mergeCell ref="A11:A30"/>
+    <mergeCell ref="A1:A12"/>
+    <mergeCell ref="A33:A35"/>
+    <mergeCell ref="A36:A42"/>
+    <mergeCell ref="A43:A53"/>
+    <mergeCell ref="A13:A32"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Note" prompt="If the desired material does not figrue on the list, please add it as well as its following parameters to the list in the worksheet &quot;rail and wheel materials&quot;" sqref="D8:H8"/>
